--- a/sequences/18_localizer.xlsx
+++ b/sequences/18_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
     <t>face/face013.png</t>
   </si>
   <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
     <t>car/car011.png</t>
   </si>
   <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
   </si>
   <si>
     <t>car/car007.png</t>
   </si>
   <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
   </si>
   <si>
     <t>dog/dog015.png</t>
   </si>
   <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
     <t>flower/flower013.png</t>
   </si>
   <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
   </si>
   <si>
     <t>car/car024.png</t>
   </si>
   <si>
-    <t>dog/dog022.png</t>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
   </si>
   <si>
     <t>dog/dog025.png</t>
   </si>
   <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
+    <t>flower/flower021.png</t>
   </si>
   <si>
     <t>flower/flower016.png</t>
   </si>
   <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
     <t>car/car028.png</t>
   </si>
   <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
   </si>
   <si>
     <t>flower/flower022.png</t>
   </si>
   <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
   </si>
   <si>
     <t>dog/dog017.png</t>
   </si>
   <si>
-    <t>car/car027.png</t>
+    <t>face/face028.png</t>
   </si>
   <si>
     <t>car/car017.png</t>
   </si>
   <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
     <t>face/face024.png</t>
   </si>
   <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
   </si>
   <si>
     <t>face/face033.png</t>
   </si>
   <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
     <t>face/face043.png</t>
   </si>
   <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
     <t>flower/flower035.png</t>
   </si>
   <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
+    <t>dog/dog040.png</t>
   </si>
   <si>
     <t>face/face046.png</t>
   </si>
   <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
     <t>face/face037.png</t>
   </si>
   <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
   </si>
   <si>
     <t>dog/dog052.png</t>
   </si>
   <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
     <t>dog/dog056.png</t>
   </si>
   <si>
-    <t>flower/flower057.png</t>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
   </si>
   <si>
     <t>car/car055.png</t>
   </si>
   <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
     <t>car/car062.png</t>
   </si>
   <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
   </si>
   <si>
     <t>car/car059.png</t>
   </si>
   <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
     <t>face/face056.png</t>
   </si>
   <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
   </si>
   <si>
     <t>dog/dog048.png</t>
   </si>
   <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
+    <t>flower/flower054.png</t>
   </si>
   <si>
     <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.321346163108907</v>
+        <v>1.445234106926538</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.682485693853948</v>
+        <v>1.760638236965082</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.606541669728854</v>
+        <v>1.584769818731321</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.534419535617555</v>
+        <v>1.517308689013238</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.360046500525278</v>
+        <v>1.335549439695792</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.540049286399949</v>
+        <v>1.803827730033234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.365103284317086</v>
+        <v>1.582767003819547</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.855588219658403</v>
+        <v>1.492847281644651</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1.759605118489779</v>
+        <v>1.639305656068424</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.498276903756787</v>
+        <v>1.633090901944626</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.518585468697498</v>
+        <v>1.508389800325395</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.705209982521452</v>
+        <v>1.37584445565055</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.637122569643224</v>
+        <v>1.455721321623403</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.65124243757427</v>
+        <v>1.589185174072937</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.427386016265312</v>
+        <v>1.469555794079152</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.213135731130024</v>
+        <v>1.315319685076218</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.629045890164701</v>
+        <v>1.782978820822255</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.375481378215687</v>
+        <v>1.499269364693807</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.526778200035598</v>
+        <v>1.495772515186728</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.585453759408585</v>
+        <v>1.533404486616704</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.306082551095193</v>
+        <v>1.601376880776822</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.588244983068303</v>
+        <v>1.446962129386187</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.807323651665081</v>
+        <v>1.555971504557637</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.530568458321359</v>
+        <v>1.496752976873028</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.533695647678982</v>
+        <v>1.500502745425864</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.625058089443801</v>
+        <v>1.644989679005269</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.601767306827917</v>
+        <v>1.645203093880563</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.79767903122235</v>
+        <v>1.506503419392103</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.387714153763037</v>
+        <v>1.331395250351473</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.453839490650452</v>
+        <v>1.403323259502504</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.412241218988772</v>
+        <v>1.323326607052831</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.369835117806145</v>
+        <v>1.841980086219635</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.578973527784792</v>
+        <v>1.576408049274835</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.614318481313729</v>
+        <v>1.696525136243287</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.540781557124566</v>
+        <v>1.631376385960714</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.365207959631392</v>
+        <v>1.421588616565687</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.500833778577676</v>
+        <v>1.356457655963788</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.518528192276064</v>
+        <v>1.475989550686672</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.738387728597588</v>
+        <v>1.469827573663075</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.805446582088842</v>
+        <v>1.379755802159803</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.55909011403709</v>
+        <v>1.560674793542464</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.64982486062721</v>
+        <v>1.692035090871295</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.584224515848287</v>
+        <v>1.307720555597113</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.706494847098522</v>
+        <v>1.705910688603949</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.180789808431537</v>
+        <v>1.340625014746068</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.572212153186819</v>
+        <v>1.667208738419383</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.59099278153441</v>
+        <v>1.452261405014349</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.361260997155292</v>
+        <v>1.317677323888317</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.604069879278762</v>
+        <v>1.666583739718397</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.533157784721589</v>
+        <v>1.575432116863566</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.483972060794456</v>
+        <v>1.379835174668599</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.256592624839195</v>
+        <v>1.307398140086999</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.509951804265935</v>
+        <v>1.392533618414054</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.37759715189301</v>
+        <v>1.298437374992998</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.360105289535362</v>
+        <v>1.253689074274072</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.585308560807394</v>
+        <v>1.403818545700747</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.484323551020961</v>
+        <v>1.444906493169234</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.647840325570033</v>
+        <v>1.491867720587907</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.458852992346348</v>
+        <v>1.445513893018579</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.727699860619833</v>
+        <v>1.716797788476599</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.610213347398771</v>
+        <v>1.571988603674434</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.564868202544772</v>
+        <v>1.858859625814455</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.505050330974647</v>
+        <v>1.31439918153623</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.389951015295998</v>
+        <v>1.360582751587176</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.431274811687104</v>
+        <v>1.53870438707398</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.462850930907492</v>
+        <v>1.571698105288536</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.455567849272797</v>
+        <v>1.325647801323283</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.448322284573407</v>
+        <v>1.655340488905174</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.490722663969108</v>
+        <v>1.509714191342974</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.413191711656558</v>
+        <v>1.729163156263439</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.132610842424736</v>
+        <v>1.54043325599831</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.643232592817236</v>
+        <v>1.627332371419624</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.367109345850028</v>
+        <v>1.406962169780451</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.784104383478375</v>
+        <v>1.469399281771219</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.453020254923925</v>
+        <v>1.422470922982182</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.597654662381977</v>
+        <v>1.832182599043279</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.492119087091725</v>
+        <v>1.725379184714933</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.452452617161777</v>
+        <v>1.354954798532257</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.444409083440562</v>
+        <v>1.286409590954323</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.553420774805527</v>
+        <v>1.38781365314077</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.512824748156598</v>
+        <v>1.341270755419675</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.508921367423861</v>
+        <v>1.494441103478834</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.600575324138602</v>
+        <v>1.487085598836401</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.514474345202659</v>
+        <v>1.656526922006731</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.563597849141837</v>
+        <v>1.711646111372903</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.245515219694686</v>
+        <v>1.188145083887221</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.533420501495814</v>
+        <v>1.857224383655236</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.264119203089672</v>
+        <v>1.276832204486197</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.395836952678466</v>
+        <v>1.355816962660231</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.559162418184149</v>
+        <v>1.572832736524733</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.502657983636945</v>
+        <v>1.608261063882201</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>1.384447185676992</v>
+        <v>1.477757100456766</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.430822715737195</v>
+        <v>1.557196180153381</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.512777096149481</v>
+        <v>1.648593140714898</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.531994881767542</v>
+        <v>1.467928036441249</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.662411738300912</v>
+        <v>1.629502123056304</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.54247342532469</v>
+        <v>1.43852984230658</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.447856135446782</v>
+        <v>1.557801734636419</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.079834142841941</v>
+        <v>1.414620291040818</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.532116798986616</v>
+        <v>1.505448464932812</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.636543879148366</v>
+        <v>1.423841084524378</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.542681261721595</v>
+        <v>1.713743810450725</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.62561683716584</v>
+        <v>1.53364643398701</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.519253020732461</v>
+        <v>1.518031625693786</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.597190162026828</v>
+        <v>1.390200806174718</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.825374270296166</v>
+        <v>1.323107837481397</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.381043769213254</v>
+        <v>1.126997464942602</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.657827572903955</v>
+        <v>1.491368643347671</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.705473458621287</v>
+        <v>1.647557508376082</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.513685407466107</v>
+        <v>1.599060798054334</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.391057987014269</v>
+        <v>1.540247684443655</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.372466410251746</v>
+        <v>1.649304250380983</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.538912074957631</v>
+        <v>1.574667810455223</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.433138213371428</v>
+        <v>1.503756994110519</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.328548340654756</v>
+        <v>1.440030151185178</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.664184870679819</v>
+        <v>1.308077583057845</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.354090265604086</v>
+        <v>1.710002953827581</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.649447853624034</v>
+        <v>1.559583300489084</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.302359254999851</v>
+        <v>1.403722273788139</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.588809762666787</v>
+        <v>1.611689739939119</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.47004976597078</v>
+        <v>1.447238517066504</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.711551285497389</v>
+        <v>1.494365639227595</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.746601602464182</v>
+        <v>1.709862414290703</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.656522270788604</v>
+        <v>1.551605999824168</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.616605443562134</v>
+        <v>1.378272970539991</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.345583422520524</v>
+        <v>1.491538178466386</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.70183452200477</v>
+        <v>1.870025118091297</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.472010170371151</v>
+        <v>1.586225160754302</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.342701762993944</v>
+        <v>1.161922034500688</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.520070578769909</v>
+        <v>1.543017224017297</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.544077170274566</v>
+        <v>1.26973326950311</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.477902981945825</v>
+        <v>1.758782192799731</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.304528513322128</v>
+        <v>1.564764890365304</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.384954987474779</v>
+        <v>1.492895776669683</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.850137650469499</v>
+        <v>1.308986841971742</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.156406978873787</v>
+        <v>1.267826202373379</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.520614173247864</v>
+        <v>1.516264569042367</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.269817885981427</v>
+        <v>1.676094994287247</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.634488887929211</v>
+        <v>1.455232699577818</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.532749799124085</v>
+        <v>1.235866760083707</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.585277144433777</v>
+        <v>1.658778843529404</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.628638536146941</v>
+        <v>1.756096079662782</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.22617443265811</v>
+        <v>1.375373234039651</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.671428488403534</v>
+        <v>1.657026659451009</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.575631975053162</v>
+        <v>1.490091548857511</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.32086158256456</v>
+        <v>1.383018207235285</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.569006910097861</v>
+        <v>1.629560026268433</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.427958334913997</v>
+        <v>1.289427051805444</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.600479987474905</v>
+        <v>1.745045581317738</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.364644492652291</v>
+        <v>1.499911233370792</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.516292301129209</v>
+        <v>1.368733422055253</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.481610767433388</v>
+        <v>1.662890665431849</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.747544781725868</v>
+        <v>1.322719453415403</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.478716479275437</v>
+        <v>1.742673818031203</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.735849794505358</v>
+        <v>1.578543114072406</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.446337494209821</v>
+        <v>1.592301885537486</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.606703259205411</v>
+        <v>1.558346534603033</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.705451086085497</v>
+        <v>1.41902793192919</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.566261875959308</v>
+        <v>1.553484138603911</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.419590582695078</v>
+        <v>1.455201873334426</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.453974014960141</v>
+        <v>1.66024526144505</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.716425993263043</v>
+        <v>1.503130567225604</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.431467157648303</v>
+        <v>1.572887015204532</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.53770558120084</v>
+        <v>1.670164504668059</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.407764458481179</v>
+        <v>1.545176159969996</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.318970418576267</v>
+        <v>1.675028445233592</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>1.112991741073147</v>
+        <v>1.431014783658824</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.484177963389246</v>
+        <v>1.741795206998341</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.570241636736446</v>
+        <v>1.695434200080559</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.423060403298057</v>
+        <v>1.477322541997363</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.306239760709373</v>
+        <v>1.569812698535286</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1.628978126050154</v>
+        <v>1.477917412173607</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.393296429495907</v>
+        <v>1.859711872693393</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.586364816249921</v>
+        <v>1.567798266586416</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.509552753493219</v>
+        <v>1.533103843604687</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <v>1.50974319383259</v>
+        <v>1.586614299748484</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.590295716033936</v>
+        <v>1.702814122143815</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.394575078397585</v>
+        <v>1.366804710234873</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.532244147053109</v>
+        <v>1.369481934858142</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.281842187361918</v>
+        <v>1.614482250333085</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.473370638578133</v>
+        <v>1.479452498436288</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.628739969887729</v>
+        <v>1.429026889164402</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.714376808966344</v>
+        <v>1.627005364114852</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.43754804034977</v>
+        <v>1.564930646519832</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.346991462201359</v>
+        <v>1.436884045381716</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.4537552069718</v>
+        <v>1.543793699174147</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.664759325589275</v>
+        <v>1.325464305580512</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.492954348737378</v>
+        <v>1.64310558388276</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.712988643665918</v>
+        <v>1.610375301447298</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.680284502585403</v>
+        <v>1.495628743098797</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.686403766508</v>
+        <v>1.108385309457347</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.437416599983181</v>
+        <v>1.506091784864838</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.456802541168373</v>
+        <v>1.332225394071261</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.440551392007279</v>
+        <v>1.510901033741155</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.646009636195927</v>
+        <v>1.527421007389493</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.292520364508099</v>
+        <v>1.415585341975221</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.587007041925586</v>
+        <v>1.387859187907089</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.534408274291612</v>
+        <v>1.543643478977103</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.528169201197956</v>
+        <v>1.738884115201924</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.555012805801896</v>
+        <v>1.446269231708381</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.062380921871106</v>
+        <v>1.429876012235066</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.474094620856836</v>
+        <v>1.483216752156749</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.568174048296403</v>
+        <v>1.489027077950086</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.408824988796477</v>
+        <v>1.550581357268475</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.493671690053675</v>
+        <v>1.39377892044006</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.360396063692908</v>
+        <v>1.533691321592772</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.367569142901092</v>
+        <v>1.449470730463859</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.430560637961556</v>
+        <v>1.394519959955098</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.36364244841673</v>
+        <v>1.413973011452365</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.238004530381387</v>
+        <v>1.452114507645946</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.670027265799123</v>
+        <v>1.781806458963627</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.367294513593621</v>
+        <v>1.524558262334237</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.512396527167221</v>
+        <v>1.449285135304177</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.375820469001001</v>
+        <v>1.303279781638066</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.50942384215198</v>
+        <v>1.563567819402991</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.751725060616529</v>
+        <v>1.23828237274692</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.665910361678601</v>
+        <v>1.159581770598869</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.57880859750288</v>
+        <v>1.402996947129054</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.38660093537131</v>
+        <v>1.346147848744238</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.405079587473914</v>
+        <v>1.418361249132781</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.340770130746517</v>
+        <v>1.515358477343806</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.402597529594607</v>
+        <v>1.459344195169439</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.379379197559257</v>
+        <v>1.526842106390734</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.468692283163844</v>
+        <v>1.87316400610349</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.468709617803512</v>
+        <v>1.210758541077106</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.389159121204949</v>
+        <v>1.494864486017085</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.474382536287217</v>
+        <v>1.550719336478992</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.650774908371455</v>
+        <v>1.665008668704031</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.617690190806398</v>
+        <v>1.733108006522175</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.352207132692778</v>
+        <v>1.51679933905022</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.36796306281674</v>
+        <v>1.508706665095345</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.55209917673886</v>
+        <v>1.311612991819598</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.506733329817159</v>
+        <v>1.440571915076996</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.339072938159799</v>
+        <v>1.496527377957757</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.485465099916206</v>
+        <v>1.60041454035932</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.531748967394239</v>
+        <v>1.465463651057048</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.734217777692941</v>
+        <v>1.158996618689304</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.213292680634742</v>
+        <v>1.217655145829665</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.336561150895995</v>
+        <v>1.58206598372034</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.317850068015078</v>
+        <v>1.573440976104013</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.4776518352143</v>
+        <v>1.616751588772633</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.521683176177718</v>
+        <v>1.543385429912955</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.474073880931048</v>
+        <v>1.512235241428504</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.376441593518474</v>
+        <v>1.406317546835258</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.472710896030877</v>
+        <v>1.489919535728953</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.35233337720777</v>
+        <v>1.641856757924022</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.226172489825509</v>
+        <v>1.398867412758886</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.394701736630949</v>
+        <v>1.351668945984807</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.169563774895938</v>
+        <v>1.55418822105002</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.447769424589664</v>
+        <v>1.660919673624466</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.588896731889476</v>
+        <v>1.591528383405638</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.53988049276851</v>
+        <v>1.320463418962362</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.586890143277763</v>
+        <v>1.476506641191423</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.713612196332967</v>
+        <v>1.571713821739972</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.325577255460323</v>
+        <v>1.403936112868909</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.658820187174834</v>
+        <v>1.430237016805599</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/18_localizer.xlsx
+++ b/sequences/18_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.445234106926538</v>
+        <v>1.419934212564949</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.760638236965082</v>
+        <v>1.480745822995855</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.584769818731321</v>
+        <v>1.239828765299503</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.517308689013238</v>
+        <v>1.768201453975312</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.335549439695792</v>
+        <v>1.648078644061921</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.803827730033234</v>
+        <v>1.488203564306984</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.582767003819547</v>
+        <v>1.295557037578841</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.492847281644651</v>
+        <v>1.394997298185984</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.639305656068424</v>
+        <v>1.323094848585298</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.633090901944626</v>
+        <v>1.381749861363464</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.508389800325395</v>
+        <v>1.417885857460848</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.37584445565055</v>
+        <v>1.334009265534229</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.455721321623403</v>
+        <v>1.329926663618526</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.589185174072937</v>
+        <v>1.556514697581669</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.469555794079152</v>
+        <v>1.560178483991466</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.315319685076218</v>
+        <v>1.644676265758083</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.782978820822255</v>
+        <v>1.616502698887119</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.499269364693807</v>
+        <v>1.187464171602199</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.495772515186728</v>
+        <v>1.622976310740051</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.533404486616704</v>
+        <v>1.703661771349454</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.601376880776822</v>
+        <v>1.35513425940657</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.446962129386187</v>
+        <v>1.580764713783913</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.555971504557637</v>
+        <v>1.444494529374464</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1.496752976873028</v>
+        <v>1.30634131578228</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.500502745425864</v>
+        <v>1.599390698723709</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.644989679005269</v>
+        <v>1.58013757732836</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.645203093880563</v>
+        <v>1.442454176507241</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.506503419392103</v>
+        <v>1.354110819734536</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.331395250351473</v>
+        <v>1.307538652198576</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.403323259502504</v>
+        <v>1.802141898012217</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.323326607052831</v>
+        <v>1.708270045850753</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.841980086219635</v>
+        <v>1.626412828964154</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.576408049274835</v>
+        <v>1.528594190485502</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.696525136243287</v>
+        <v>1.43427987327586</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.631376385960714</v>
+        <v>1.409733285841332</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.421588616565687</v>
+        <v>1.418590388702774</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.356457655963788</v>
+        <v>1.468406595720953</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.475989550686672</v>
+        <v>1.466214707492242</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.469827573663075</v>
+        <v>1.544429345737643</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.379755802159803</v>
+        <v>1.409435422833232</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.560674793542464</v>
+        <v>1.612862135727563</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.692035090871295</v>
+        <v>1.344478401202671</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.307720555597113</v>
+        <v>1.609879733090792</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.705910688603949</v>
+        <v>1.561833826044187</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.340625014746068</v>
+        <v>1.470889312217576</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.667208738419383</v>
+        <v>1.417368745417816</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.452261405014349</v>
+        <v>1.57537851558406</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.317677323888317</v>
+        <v>1.335220872112439</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.666583739718397</v>
+        <v>1.21521114292633</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.575432116863566</v>
+        <v>1.585885340826069</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.379835174668599</v>
+        <v>1.546701482622883</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.307398140086999</v>
+        <v>1.660537801565949</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.392533618414054</v>
+        <v>1.722129786298084</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.298437374992998</v>
+        <v>1.488543313591623</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.253689074274072</v>
+        <v>1.657551274467097</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.403818545700747</v>
+        <v>1.437410457477901</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.444906493169234</v>
+        <v>1.455374869236819</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.491867720587907</v>
+        <v>1.679219306132223</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.445513893018579</v>
+        <v>1.377079133668813</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.716797788476599</v>
+        <v>1.784118171924906</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.571988603674434</v>
+        <v>1.499312441820176</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.858859625814455</v>
+        <v>1.575982833897601</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.31439918153623</v>
+        <v>1.581830257763467</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.360582751587176</v>
+        <v>1.375554149042439</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.53870438707398</v>
+        <v>1.80450612100907</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.571698105288536</v>
+        <v>1.610875174752701</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.325647801323283</v>
+        <v>1.32083561206047</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.655340488905174</v>
+        <v>1.966278945836711</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.509714191342974</v>
+        <v>1.837275368758541</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.729163156263439</v>
+        <v>1.41142759031919</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.54043325599831</v>
+        <v>1.4246007646701</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.627332371419624</v>
+        <v>1.485265512396489</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.406962169780451</v>
+        <v>1.438964887179268</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.469399281771219</v>
+        <v>1.490712206922329</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.422470922982182</v>
+        <v>1.363484076628116</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.832182599043279</v>
+        <v>1.519917729518851</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.725379184714933</v>
+        <v>1.53499173596854</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.354954798532257</v>
+        <v>1.321523267419689</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.286409590954323</v>
+        <v>1.382715438804051</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.38781365314077</v>
+        <v>1.46216266379276</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.341270755419675</v>
+        <v>1.559938129791286</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.494441103478834</v>
+        <v>1.349580673170518</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.487085598836401</v>
+        <v>1.610892503732608</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.656526922006731</v>
+        <v>1.599297706287431</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.711646111372903</v>
+        <v>1.445470239763279</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.188145083887221</v>
+        <v>1.611516453660971</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.857224383655236</v>
+        <v>1.54736741567048</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.276832204486197</v>
+        <v>1.33461024472949</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.355816962660231</v>
+        <v>1.427882461887526</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.572832736524733</v>
+        <v>1.387492936245642</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.608261063882201</v>
+        <v>1.677483707945354</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.477757100456766</v>
+        <v>1.43253931903268</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.557196180153381</v>
+        <v>1.597543805857021</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.648593140714898</v>
+        <v>1.57725110271392</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.467928036441249</v>
+        <v>1.436726776170103</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.629502123056304</v>
+        <v>1.729951232310869</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.43852984230658</v>
+        <v>1.339289953208198</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.557801734636419</v>
+        <v>1.552210980765937</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.414620291040818</v>
+        <v>1.614284819601412</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.505448464932812</v>
+        <v>1.526997366734338</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.423841084524378</v>
+        <v>1.515228153166943</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.713743810450725</v>
+        <v>1.48100799948231</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.53364643398701</v>
+        <v>1.369760127000071</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.518031625693786</v>
+        <v>1.53796771576908</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.390200806174718</v>
+        <v>1.453172180713278</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.323107837481397</v>
+        <v>1.559924828557984</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.126997464942602</v>
+        <v>1.417990478408515</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.491368643347671</v>
+        <v>1.426317775946664</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.647557508376082</v>
+        <v>1.432204436847197</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.599060798054334</v>
+        <v>1.516480818403761</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.540247684443655</v>
+        <v>1.449408475017751</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.649304250380983</v>
+        <v>1.487301480618745</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.574667810455223</v>
+        <v>1.481901579802998</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.503756994110519</v>
+        <v>1.576021402446093</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.440030151185178</v>
+        <v>1.398674214940191</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.308077583057845</v>
+        <v>1.403024834677092</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.710002953827581</v>
+        <v>1.485816685269067</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.559583300489084</v>
+        <v>1.746176094931186</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.403722273788139</v>
+        <v>1.477108380873756</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.611689739939119</v>
+        <v>1.13660554795136</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.447238517066504</v>
+        <v>1.431639520394516</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.494365639227595</v>
+        <v>1.676572694910659</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.709862414290703</v>
+        <v>1.589518404164311</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.551605999824168</v>
+        <v>1.353148028738343</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.378272970539991</v>
+        <v>1.299205200196098</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.491538178466386</v>
+        <v>1.576672456524445</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.870025118091297</v>
+        <v>1.501527164243527</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.586225160754302</v>
+        <v>1.628369358201802</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.161922034500688</v>
+        <v>1.790031494759478</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.543017224017297</v>
+        <v>1.686548886034674</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.26973326950311</v>
+        <v>1.542284368020639</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.758782192799731</v>
+        <v>1.409933877541124</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.564764890365304</v>
+        <v>1.511736987269371</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.492895776669683</v>
+        <v>1.58833889766234</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.308986841971742</v>
+        <v>1.441528415789386</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.267826202373379</v>
+        <v>1.27395438983888</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.516264569042367</v>
+        <v>1.543287487213728</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.676094994287247</v>
+        <v>1.554275120404989</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.455232699577818</v>
+        <v>1.372141330452596</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.235866760083707</v>
+        <v>1.310735842688287</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.658778843529404</v>
+        <v>1.443395208947122</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.756096079662782</v>
+        <v>1.631481945741781</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.375373234039651</v>
+        <v>1.670406395662473</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.657026659451009</v>
+        <v>1.566919938197043</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.490091548857511</v>
+        <v>1.647730433534987</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.383018207235285</v>
+        <v>1.474899232140401</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.629560026268433</v>
+        <v>1.343482420654789</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.289427051805444</v>
+        <v>1.51218534831308</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.745045581317738</v>
+        <v>1.591791316732192</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.499911233370792</v>
+        <v>1.725158086082121</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.368733422055253</v>
+        <v>1.742200954301073</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.662890665431849</v>
+        <v>1.575367339077959</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.322719453415403</v>
+        <v>1.410896033518985</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.742673818031203</v>
+        <v>1.499791125794378</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.578543114072406</v>
+        <v>1.810239610092071</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.592301885537486</v>
+        <v>1.280473387429599</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.558346534603033</v>
+        <v>1.496025275631532</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.41902793192919</v>
+        <v>1.497525866939564</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.553484138603911</v>
+        <v>1.317135107637538</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.455201873334426</v>
+        <v>1.541032484720853</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.66024526144505</v>
+        <v>1.517048353513246</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.503130567225604</v>
+        <v>1.377355617411225</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.572887015204532</v>
+        <v>1.384975355000461</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.670164504668059</v>
+        <v>1.26472459220371</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.545176159969996</v>
+        <v>1.670574996398734</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>1.675028445233592</v>
+        <v>1.489738714025778</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.431014783658824</v>
+        <v>1.440856635531213</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.741795206998341</v>
+        <v>1.255896540896754</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.695434200080559</v>
+        <v>1.433544611854971</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.477322541997363</v>
+        <v>1.348226192347039</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.569812698535286</v>
+        <v>1.403159461824205</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.477917412173607</v>
+        <v>1.53025908610508</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.859711872693393</v>
+        <v>1.448453034522003</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.567798266586416</v>
+        <v>1.48049545988053</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.533103843604687</v>
+        <v>1.654786494345272</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.586614299748484</v>
+        <v>1.367547303506014</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.702814122143815</v>
+        <v>1.260829261593712</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.366804710234873</v>
+        <v>1.757425408187576</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.369481934858142</v>
+        <v>1.215387145856355</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.614482250333085</v>
+        <v>1.510724629690233</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.479452498436288</v>
+        <v>1.680622723793946</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.429026889164402</v>
+        <v>1.412035670560245</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.627005364114852</v>
+        <v>1.56196373892565</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.564930646519832</v>
+        <v>1.512899624711221</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.436884045381716</v>
+        <v>1.586570235728322</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.543793699174147</v>
+        <v>1.588810869571474</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.325464305580512</v>
+        <v>1.443442221592451</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.64310558388276</v>
+        <v>1.393626486540023</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.610375301447298</v>
+        <v>1.430272614079026</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.495628743098797</v>
+        <v>1.324603215567164</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.108385309457347</v>
+        <v>1.618710845118887</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.506091784864838</v>
+        <v>1.2419697742354</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.332225394071261</v>
+        <v>1.359875563418198</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.510901033741155</v>
+        <v>1.347110726090668</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.527421007389493</v>
+        <v>1.515585605335838</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.415585341975221</v>
+        <v>1.331318232650313</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.387859187907089</v>
+        <v>1.532389698889642</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.543643478977103</v>
+        <v>1.450442436284837</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.738884115201924</v>
+        <v>1.419664669497044</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.446269231708381</v>
+        <v>1.434868972565061</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.429876012235066</v>
+        <v>1.682374652942814</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.483216752156749</v>
+        <v>1.39818491333483</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.489027077950086</v>
+        <v>1.562496451885666</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.550581357268475</v>
+        <v>1.332176794266575</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>1.39377892044006</v>
+        <v>1.54204005173596</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.533691321592772</v>
+        <v>1.383582413470514</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.449470730463859</v>
+        <v>1.662058226546599</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.394519959955098</v>
+        <v>1.49862271403228</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.413973011452365</v>
+        <v>1.664061314675668</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.452114507645946</v>
+        <v>1.50621810960797</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.781806458963627</v>
+        <v>1.562141476284975</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.524558262334237</v>
+        <v>1.785797483936198</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.449285135304177</v>
+        <v>1.540109164456391</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.303279781638066</v>
+        <v>1.672832763368935</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.563567819402991</v>
+        <v>1.432627183342158</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.23828237274692</v>
+        <v>1.287195425406134</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.159581770598869</v>
+        <v>1.689824796200053</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.402996947129054</v>
+        <v>1.214335340668677</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.346147848744238</v>
+        <v>1.368677797183264</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.418361249132781</v>
+        <v>1.444727185613208</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.515358477343806</v>
+        <v>1.441980912812245</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.459344195169439</v>
+        <v>1.674267570536302</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.526842106390734</v>
+        <v>1.509028158881893</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.87316400610349</v>
+        <v>1.383269560745316</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.210758541077106</v>
+        <v>1.565423176822746</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.494864486017085</v>
+        <v>1.240172501676941</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.550719336478992</v>
+        <v>1.556459216013898</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.665008668704031</v>
+        <v>1.453786098007023</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.733108006522175</v>
+        <v>1.604455542299152</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>1.51679933905022</v>
+        <v>1.480206733423572</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.508706665095345</v>
+        <v>1.272973247733575</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.311612991819598</v>
+        <v>1.590382887519883</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.440571915076996</v>
+        <v>1.174663149157212</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.496527377957757</v>
+        <v>1.722106208123255</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.60041454035932</v>
+        <v>1.399783224248119</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.465463651057048</v>
+        <v>1.916821610363675</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.158996618689304</v>
+        <v>1.332273014777933</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.217655145829665</v>
+        <v>1.427702524508434</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.58206598372034</v>
+        <v>1.58989183188215</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.573440976104013</v>
+        <v>1.675496752090634</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.616751588772633</v>
+        <v>1.705093043837648</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.543385429912955</v>
+        <v>1.627350407970419</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.512235241428504</v>
+        <v>1.295165082269107</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.406317546835258</v>
+        <v>1.82863695156453</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.489919535728953</v>
+        <v>1.501385363662266</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.641856757924022</v>
+        <v>1.285457483687498</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.398867412758886</v>
+        <v>1.300332302534143</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.351668945984807</v>
+        <v>1.468552392367809</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.55418822105002</v>
+        <v>1.461747321921112</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.660919673624466</v>
+        <v>1.571246980976613</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.591528383405638</v>
+        <v>1.273731040942414</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.320463418962362</v>
+        <v>1.618713156630387</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.476506641191423</v>
+        <v>1.839475770949321</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.571713821739972</v>
+        <v>1.456431711587512</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.403936112868909</v>
+        <v>1.512131281747969</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.430237016805599</v>
+        <v>1.618288007763477</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/18_localizer.xlsx
+++ b/sequences/18_localizer.xlsx
@@ -34,205 +34,205 @@
     <t>flower</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>flower/flower047.jpg</t>
   </si>
   <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
   </si>
   <si>
     <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
   </si>
   <si>
     <t>flower/flower055.jpg</t>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.419934212564949</v>
+        <v>1.614829572826912</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.480745822995855</v>
+        <v>1.629098522378245</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.239828765299503</v>
+        <v>1.793355472944038</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.768201453975312</v>
+        <v>1.383455295506147</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1.648078644061921</v>
+        <v>1.977819621403388</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.488203564306984</v>
+        <v>1.840068040158806</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.295557037578841</v>
+        <v>1.800391561656653</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.394997298185984</v>
+        <v>1.42829906659593</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.323094848585298</v>
+        <v>1.559027555848895</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.381749861363464</v>
+        <v>1.442105892266528</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.417885857460848</v>
+        <v>1.563607531133252</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.334009265534229</v>
+        <v>1.559704198957228</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.329926663618526</v>
+        <v>1.500265275784771</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.556514697581669</v>
+        <v>1.605899074354862</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.560178483991466</v>
+        <v>1.610649501075615</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.644676265758083</v>
+        <v>1.574906610925664</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.616502698887119</v>
+        <v>1.341764500918038</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.187464171602199</v>
+        <v>1.563803784874677</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.622976310740051</v>
+        <v>1.542230542708233</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.703661771349454</v>
+        <v>1.50032571698598</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.35513425940657</v>
+        <v>1.344224674267638</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.580764713783913</v>
+        <v>1.375741221813672</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.444494529374464</v>
+        <v>1.462580015077506</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1.30634131578228</v>
+        <v>1.621353233787322</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.599390698723709</v>
+        <v>1.350159758934596</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.58013757732836</v>
+        <v>1.400396810118526</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.442454176507241</v>
+        <v>1.324184223791787</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.354110819734536</v>
+        <v>1.5613778355562</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.307538652198576</v>
+        <v>1.722001841533354</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.802141898012217</v>
+        <v>1.456103841572887</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.708270045850753</v>
+        <v>1.602070725922286</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.626412828964154</v>
+        <v>1.404733248336968</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.528594190485502</v>
+        <v>1.514870607202661</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.43427987327586</v>
+        <v>1.406940691515762</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.409733285841332</v>
+        <v>1.512145847367608</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.418590388702774</v>
+        <v>1.440645656395991</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.468406595720953</v>
+        <v>1.455831133648626</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.466214707492242</v>
+        <v>1.291020042302696</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.544429345737643</v>
+        <v>1.449965925795087</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.409435422833232</v>
+        <v>1.648537531314857</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.612862135727563</v>
+        <v>1.500183595728478</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.344478401202671</v>
+        <v>1.503041132547196</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.609879733090792</v>
+        <v>1.508004694171557</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.561833826044187</v>
+        <v>1.486452419602119</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.470889312217576</v>
+        <v>1.467812721086814</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.417368745417816</v>
+        <v>1.425786570441134</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.57537851558406</v>
+        <v>1.338758264849684</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.335220872112439</v>
+        <v>1.653730732673972</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.21521114292633</v>
+        <v>1.444738635035824</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.585885340826069</v>
+        <v>1.722845178027061</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.546701482622883</v>
+        <v>1.360307248139192</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.660537801565949</v>
+        <v>1.570237924432847</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.722129786298084</v>
+        <v>1.628972060762933</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.488543313591623</v>
+        <v>1.592293815772706</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.657551274467097</v>
+        <v>1.342284575482705</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.437410457477901</v>
+        <v>1.360630460188712</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.455374869236819</v>
+        <v>1.336482238852842</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.679219306132223</v>
+        <v>1.299408572830816</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.377079133668813</v>
+        <v>1.943354834336898</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.784118171924906</v>
+        <v>1.461677187597022</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.499312441820176</v>
+        <v>1.430367636531136</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.575982833897601</v>
+        <v>1.535634979173295</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.581830257763467</v>
+        <v>1.496608999788752</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.375554149042439</v>
+        <v>1.572769230991044</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.80450612100907</v>
+        <v>1.242036626506319</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.610875174752701</v>
+        <v>1.509848875111381</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.32083561206047</v>
+        <v>1.594712798169147</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.966278945836711</v>
+        <v>1.509584783117716</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.837275368758541</v>
+        <v>1.565484106340064</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.41142759031919</v>
+        <v>1.627716034273904</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.4246007646701</v>
+        <v>1.165775513680192</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.485265512396489</v>
+        <v>1.843247985132207</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.438964887179268</v>
+        <v>1.229139963546346</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.490712206922329</v>
+        <v>1.831492154745403</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.363484076628116</v>
+        <v>1.368045213221623</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.519917729518851</v>
+        <v>1.338169178413286</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.53499173596854</v>
+        <v>1.684604358895445</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.321523267419689</v>
+        <v>1.260587111443108</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.382715438804051</v>
+        <v>1.623555653799789</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.46216266379276</v>
+        <v>1.436794797319102</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.559938129791286</v>
+        <v>1.417605368204998</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.349580673170518</v>
+        <v>1.59102394626897</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.610892503732608</v>
+        <v>1.396870159675148</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.599297706287431</v>
+        <v>1.169374113406653</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.445470239763279</v>
+        <v>1.491678594867391</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.611516453660971</v>
+        <v>1.898692647203123</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.54736741567048</v>
+        <v>1.709307321391937</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.33461024472949</v>
+        <v>1.532191955620858</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.427882461887526</v>
+        <v>1.589590111091529</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.387492936245642</v>
+        <v>1.690568585276764</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.677483707945354</v>
+        <v>1.775750650659959</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.43253931903268</v>
+        <v>1.28102817915848</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.597543805857021</v>
+        <v>1.460759910556973</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.57725110271392</v>
+        <v>1.508041388410972</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.436726776170103</v>
+        <v>1.417493374557971</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.729951232310869</v>
+        <v>1.455991679756548</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.339289953208198</v>
+        <v>1.461732046444789</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.552210980765937</v>
+        <v>1.599247439488541</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.614284819601412</v>
+        <v>1.762074798741943</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.526997366734338</v>
+        <v>1.316936934104494</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.515228153166943</v>
+        <v>1.72196297099413</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.48100799948231</v>
+        <v>1.48422846840251</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.369760127000071</v>
+        <v>1.564115924619675</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.53796771576908</v>
+        <v>1.250888621236291</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.453172180713278</v>
+        <v>1.396038379679831</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.559924828557984</v>
+        <v>1.535272048071434</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.417990478408515</v>
+        <v>1.520432649299483</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.426317775946664</v>
+        <v>1.541101550565493</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.432204436847197</v>
+        <v>1.704295008050756</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.516480818403761</v>
+        <v>1.826747865815019</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.449408475017751</v>
+        <v>1.563627865702339</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.487301480618745</v>
+        <v>1.800276409247218</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.481901579802998</v>
+        <v>1.575318269372705</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.576021402446093</v>
+        <v>1.714021271612901</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.398674214940191</v>
+        <v>1.178132746718637</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.403024834677092</v>
+        <v>1.246786437740925</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.485816685269067</v>
+        <v>1.50352740650073</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.746176094931186</v>
+        <v>1.515368923888412</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.477108380873756</v>
+        <v>1.551473878930652</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.13660554795136</v>
+        <v>1.681347601461164</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.431639520394516</v>
+        <v>1.599812985227276</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.676572694910659</v>
+        <v>1.395623220135253</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.589518404164311</v>
+        <v>1.473017315086693</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1.353148028738343</v>
+        <v>1.69692467862977</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.299205200196098</v>
+        <v>1.156415146270746</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.576672456524445</v>
+        <v>1.394512377157107</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.501527164243527</v>
+        <v>1.564510614952029</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.628369358201802</v>
+        <v>1.614332522859152</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.790031494759478</v>
+        <v>1.250423109227321</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.686548886034674</v>
+        <v>1.390340993682824</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.542284368020639</v>
+        <v>1.507803041282497</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.409933877541124</v>
+        <v>1.613624728431263</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.511736987269371</v>
+        <v>1.227872830141499</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.58833889766234</v>
+        <v>1.220911020036487</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.441528415789386</v>
+        <v>1.514290990965042</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.27395438983888</v>
+        <v>1.155853109229634</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.543287487213728</v>
+        <v>1.670613340277714</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.554275120404989</v>
+        <v>1.639845693162828</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.372141330452596</v>
+        <v>1.717016935141335</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.310735842688287</v>
+        <v>1.560450883643172</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.443395208947122</v>
+        <v>1.443653528185906</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.631481945741781</v>
+        <v>1.303643347454569</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.670406395662473</v>
+        <v>1.5748247430121</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.566919938197043</v>
+        <v>1.617907745058339</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.647730433534987</v>
+        <v>1.455510867010098</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.474899232140401</v>
+        <v>1.660544636116837</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.343482420654789</v>
+        <v>1.555643669201011</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.51218534831308</v>
+        <v>1.461731576451062</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.591791316732192</v>
+        <v>1.774276751414197</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.725158086082121</v>
+        <v>1.927370734484904</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.742200954301073</v>
+        <v>1.437716328135503</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.575367339077959</v>
+        <v>1.318516615542648</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.410896033518985</v>
+        <v>1.513149902234523</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.499791125794378</v>
+        <v>1.301619795853573</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.810239610092071</v>
+        <v>1.432660962408481</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.280473387429599</v>
+        <v>1.516085899963845</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.496025275631532</v>
+        <v>1.372165693118051</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.497525866939564</v>
+        <v>1.44965625448411</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.317135107637538</v>
+        <v>1.347820340901708</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.541032484720853</v>
+        <v>1.823556838536014</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.517048353513246</v>
+        <v>1.525052619622452</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.377355617411225</v>
+        <v>1.258439386731255</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.384975355000461</v>
+        <v>1.394793321324596</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.26472459220371</v>
+        <v>1.340764595596297</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.670574996398734</v>
+        <v>1.463491263826682</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.489738714025778</v>
+        <v>1.37281642012568</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.440856635531213</v>
+        <v>1.624174989738616</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.255896540896754</v>
+        <v>1.37686932858917</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.433544611854971</v>
+        <v>1.416894912706819</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.348226192347039</v>
+        <v>1.615506141368406</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.403159461824205</v>
+        <v>1.533674498293842</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.53025908610508</v>
+        <v>1.44408242077801</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.448453034522003</v>
+        <v>1.24887519183587</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.48049545988053</v>
+        <v>1.655427465101634</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.654786494345272</v>
+        <v>1.68190793971364</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.367547303506014</v>
+        <v>1.509213950167688</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.260829261593712</v>
+        <v>1.929081150435565</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.757425408187576</v>
+        <v>1.585024504242496</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.215387145856355</v>
+        <v>1.588226322025989</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.510724629690233</v>
+        <v>1.687459644886439</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.680622723793946</v>
+        <v>1.815725023714987</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.412035670560245</v>
+        <v>1.459059712515304</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.56196373892565</v>
+        <v>1.54184559362783</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.512899624711221</v>
+        <v>1.369017747140648</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.586570235728322</v>
+        <v>1.560846017111533</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.588810869571474</v>
+        <v>1.665779682805914</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.443442221592451</v>
+        <v>1.207915263001858</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.393626486540023</v>
+        <v>1.223803727861957</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.430272614079026</v>
+        <v>1.524603041346664</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.324603215567164</v>
+        <v>1.494507196272544</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.618710845118887</v>
+        <v>1.869187717561331</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.2419697742354</v>
+        <v>1.426816291231192</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.359875563418198</v>
+        <v>1.436546731649258</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.347110726090668</v>
+        <v>1.288918073319727</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.515585605335838</v>
+        <v>1.561358159474543</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.331318232650313</v>
+        <v>1.728440066372546</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.532389698889642</v>
+        <v>1.782528104421085</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.450442436284837</v>
+        <v>1.65168814482111</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.419664669497044</v>
+        <v>1.379759692385246</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.434868972565061</v>
+        <v>1.596323873713347</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.682374652942814</v>
+        <v>1.284737704119926</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.39818491333483</v>
+        <v>1.326742900372224</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.562496451885666</v>
+        <v>1.351550956326603</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.332176794266575</v>
+        <v>1.523404205481794</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.54204005173596</v>
+        <v>1.568696317840902</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.383582413470514</v>
+        <v>1.451188370125001</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.662058226546599</v>
+        <v>1.586584048318304</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.49862271403228</v>
+        <v>1.465458839836463</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.664061314675668</v>
+        <v>1.488006336424267</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.50621810960797</v>
+        <v>1.664020132018278</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.562141476284975</v>
+        <v>1.253186512104099</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.785797483936198</v>
+        <v>1.802023263151624</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.540109164456391</v>
+        <v>1.674798759382419</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.672832763368935</v>
+        <v>1.663850639634353</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.432627183342158</v>
+        <v>1.41759297831802</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.287195425406134</v>
+        <v>1.583408961598346</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.689824796200053</v>
+        <v>1.405211560990655</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.214335340668677</v>
+        <v>1.580571720466177</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.368677797183264</v>
+        <v>1.548790201019929</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.444727185613208</v>
+        <v>1.663372784089409</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>1.441980912812245</v>
+        <v>1.590900458937536</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.674267570536302</v>
+        <v>1.538456479590883</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.509028158881893</v>
+        <v>1.449599071770863</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.383269560745316</v>
+        <v>1.563475839477251</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.565423176822746</v>
+        <v>1.581557060677518</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.240172501676941</v>
+        <v>1.576364607040352</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.556459216013898</v>
+        <v>1.301485604963598</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.453786098007023</v>
+        <v>1.618217066257037</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.604455542299152</v>
+        <v>1.488620765676419</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.480206733423572</v>
+        <v>1.518403215355081</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.272973247733575</v>
+        <v>1.511433704538495</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.590382887519883</v>
+        <v>1.280739539938538</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.174663149157212</v>
+        <v>1.55956853400469</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.722106208123255</v>
+        <v>1.427519318397731</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.399783224248119</v>
+        <v>1.803433768045066</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.916821610363675</v>
+        <v>1.387258697106646</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.332273014777933</v>
+        <v>1.662629991495609</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.427702524508434</v>
+        <v>1.463028958072541</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.58989183188215</v>
+        <v>1.40746866309869</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.675496752090634</v>
+        <v>1.574934382149033</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.705093043837648</v>
+        <v>1.537871551694305</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.627350407970419</v>
+        <v>1.541142263479439</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.295165082269107</v>
+        <v>1.580885497345405</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.82863695156453</v>
+        <v>1.641067163966421</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.501385363662266</v>
+        <v>1.687056152554496</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.285457483687498</v>
+        <v>1.647570294961016</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.300332302534143</v>
+        <v>1.468530735746133</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.468552392367809</v>
+        <v>1.637591925548519</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.461747321921112</v>
+        <v>1.516614392048366</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.571246980976613</v>
+        <v>1.770322046117416</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.273731040942414</v>
+        <v>1.273434155902812</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.618713156630387</v>
+        <v>1.470577183225218</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.839475770949321</v>
+        <v>1.675416615983084</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.456431711587512</v>
+        <v>1.703262347282674</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.512131281747969</v>
+        <v>1.450125456297057</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.618288007763477</v>
+        <v>1.583386106857768</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/18_localizer.xlsx
+++ b/sequences/18_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
   </si>
   <si>
     <t>flower/flower045.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
   </si>
   <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
   </si>
   <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
   </si>
   <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
   </si>
   <si>
     <t>flower/flower055.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
     <t>dog/dog052.jpg</t>
   </si>
   <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
   </si>
   <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
+    <t>dog/dog053.jpg</t>
   </si>
   <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
   </si>
   <si>
     <t>house/house073.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
     <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.614829572826912</v>
+        <v>1.374106142445027</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.629098522378245</v>
+        <v>1.471809814877106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.793355472944038</v>
+        <v>1.388807369363681</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.383455295506147</v>
+        <v>1.483341868371139</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.977819621403388</v>
+        <v>1.369022295623145</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.840068040158806</v>
+        <v>1.772279326215146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.800391561656653</v>
+        <v>1.566448441605403</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.42829906659593</v>
+        <v>1.623487820135503</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.559027555848895</v>
+        <v>1.555810167316839</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.442105892266528</v>
+        <v>1.474450493548912</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.563607531133252</v>
+        <v>1.394607182763148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.559704198957228</v>
+        <v>1.542937078767146</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.500265275784771</v>
+        <v>1.371793339352351</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.605899074354862</v>
+        <v>1.456768263394699</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.610649501075615</v>
+        <v>1.70222907094295</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.574906610925664</v>
+        <v>1.692297711792184</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.341764500918038</v>
+        <v>1.439143964821326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.563803784874677</v>
+        <v>1.636401357294445</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.542230542708233</v>
+        <v>1.374096912108042</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.50032571698598</v>
+        <v>1.528673362786797</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.344224674267638</v>
+        <v>1.808413226539468</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.375741221813672</v>
+        <v>1.686577315767699</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.462580015077506</v>
+        <v>1.369584838762591</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.621353233787322</v>
+        <v>1.246880714050329</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.350159758934596</v>
+        <v>1.359549759515348</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.400396810118526</v>
+        <v>1.466275353546239</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.324184223791787</v>
+        <v>1.243627394021793</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.5613778355562</v>
+        <v>1.462673338947175</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.722001841533354</v>
+        <v>1.57605941630136</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.456103841572887</v>
+        <v>1.692100854113702</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.602070725922286</v>
+        <v>1.607304517230533</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.404733248336968</v>
+        <v>1.625352234891345</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.514870607202661</v>
+        <v>1.547188422292034</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.406940691515762</v>
+        <v>1.431913074877187</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.512145847367608</v>
+        <v>1.622018202428052</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.440645656395991</v>
+        <v>1.293144274982002</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.455831133648626</v>
+        <v>1.270480344503213</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.291020042302696</v>
+        <v>1.810290070829563</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.449965925795087</v>
+        <v>1.483911366817898</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.648537531314857</v>
+        <v>1.46865586548656</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.500183595728478</v>
+        <v>1.45779243128782</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.503041132547196</v>
+        <v>1.201210166888627</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.508004694171557</v>
+        <v>1.330792147460193</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.486452419602119</v>
+        <v>1.857660462436498</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.467812721086814</v>
+        <v>1.449715136452609</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.425786570441134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.338758264849684</v>
+        <v>1.412066409267389</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.653730732673972</v>
+        <v>1.442186365003327</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.444738635035824</v>
+        <v>1.857955164946256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.722845178027061</v>
+        <v>1.275238864485934</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.360307248139192</v>
+        <v>1.571882857172592</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.570237924432847</v>
+        <v>1.356616358096276</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.628972060762933</v>
+        <v>1.618518941215657</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.592293815772706</v>
+        <v>1.404998700833203</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.342284575482705</v>
+        <v>1.573792836317504</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.360630460188712</v>
+        <v>1.735713915504052</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.336482238852842</v>
+        <v>1.440549847188149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.299408572830816</v>
+        <v>1.468578804997656</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.943354834336898</v>
+        <v>1.527573375318095</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.461677187597022</v>
+        <v>1.883358629174376</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.430367636531136</v>
+        <v>1.696632606339469</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.535634979173295</v>
+        <v>1.68280269799296</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.496608999788752</v>
+        <v>1.381797621596947</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.572769230991044</v>
+        <v>1.400032103300629</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.242036626506319</v>
+        <v>1.527506444705922</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.509848875111381</v>
+        <v>1.468243690758599</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.594712798169147</v>
+        <v>1.620299707953578</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.509584783117716</v>
+        <v>1.603951915923608</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.565484106340064</v>
+        <v>1.556983033593395</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.627716034273904</v>
+        <v>1.526251339224846</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.165775513680192</v>
+        <v>1.569218384075477</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.843247985132207</v>
+        <v>1.491168633700446</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.229139963546346</v>
+        <v>1.143328638922998</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.831492154745403</v>
+        <v>1.121360498793517</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.368045213221623</v>
+        <v>1.622358346264426</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.338169178413286</v>
+        <v>1.508313752018622</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.684604358895445</v>
+        <v>1.647575322204064</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.260587111443108</v>
+        <v>1.699318635833778</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.623555653799789</v>
+        <v>1.365201485529714</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.436794797319102</v>
+        <v>1.412393358166369</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.417605368204998</v>
+        <v>1.867209465655637</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.59102394626897</v>
+        <v>1.499665510148361</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.396870159675148</v>
+        <v>1.524237005348117</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.169374113406653</v>
+        <v>1.373055465432165</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.491678594867391</v>
+        <v>1.665119820167006</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.898692647203123</v>
+        <v>1.844093544412344</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.709307321391937</v>
+        <v>1.620994985842944</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.532191955620858</v>
+        <v>1.422272455178502</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.589590111091529</v>
+        <v>1.388026623480844</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.690568585276764</v>
+        <v>1.330164906669616</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.775750650659959</v>
+        <v>1.448399123635828</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.28102817915848</v>
+        <v>1.335082487173421</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.460759910556973</v>
+        <v>1.839835038387673</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.508041388410972</v>
+        <v>1.432536269367348</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.417493374557971</v>
+        <v>1.390616392745523</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.455991679756548</v>
+        <v>1.549970079652179</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.461732046444789</v>
+        <v>1.321520546564655</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.599247439488541</v>
+        <v>1.499711075066383</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.762074798741943</v>
+        <v>1.449792090490786</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.316936934104494</v>
+        <v>1.426235746897955</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.72196297099413</v>
+        <v>1.496165967914482</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.48422846840251</v>
+        <v>1.562900370527313</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.564115924619675</v>
+        <v>1.535818926467922</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.250888621236291</v>
+        <v>1.355753968404964</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.396038379679831</v>
+        <v>1.513507014771859</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.535272048071434</v>
+        <v>1.599772442967695</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.520432649299483</v>
+        <v>1.749539805531156</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.541101550565493</v>
+        <v>1.482584765856448</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.704295008050756</v>
+        <v>1.591973227191283</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.826747865815019</v>
+        <v>1.454598337679203</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.563627865702339</v>
+        <v>1.653366292138668</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.800276409247218</v>
+        <v>1.365583177333306</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.575318269372705</v>
+        <v>1.458033440429017</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.714021271612901</v>
+        <v>1.767377378796736</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.178132746718637</v>
+        <v>1.360093654103973</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.246786437740925</v>
+        <v>1.34384259981666</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.50352740650073</v>
+        <v>1.425458160886861</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1.515368923888412</v>
+        <v>1.414948995747277</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.551473878930652</v>
+        <v>1.753605799193549</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.681347601461164</v>
+        <v>1.477383716522864</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.599812985227276</v>
+        <v>1.796289507667109</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.395623220135253</v>
+        <v>1.397102728648492</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.473017315086693</v>
+        <v>1.588664099358185</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.69692467862977</v>
+        <v>1.65738710133535</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>1.156415146270746</v>
+        <v>1.596288571056268</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.394512377157107</v>
+        <v>1.84452369178258</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.564510614952029</v>
+        <v>1.456662357149742</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.614332522859152</v>
+        <v>1.656484320386677</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.250423109227321</v>
+        <v>1.333328098698202</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.390340993682824</v>
+        <v>1.538083538347077</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.507803041282497</v>
+        <v>1.413414410213644</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.613624728431263</v>
+        <v>1.784071405789449</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.227872830141499</v>
+        <v>1.660743664395943</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.220911020036487</v>
+        <v>1.583596050613356</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.514290990965042</v>
+        <v>1.428798595553107</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.155853109229634</v>
+        <v>1.517696427730002</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.670613340277714</v>
+        <v>1.368211239742854</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.639845693162828</v>
+        <v>1.495992832968985</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.717016935141335</v>
+        <v>1.410277216874547</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.560450883643172</v>
+        <v>1.307234379935182</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.443653528185906</v>
+        <v>1.46212869996179</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.303643347454569</v>
+        <v>1.306983715998978</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.5748247430121</v>
+        <v>1.489819097680853</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.617907745058339</v>
+        <v>1.395903262739492</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.455510867010098</v>
+        <v>1.449265682384453</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.660544636116837</v>
+        <v>1.297402683489754</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.555643669201011</v>
+        <v>1.50433953855368</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.461731576451062</v>
+        <v>1.418073494805909</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.774276751414197</v>
+        <v>1.627902511547615</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.927370734484904</v>
+        <v>1.519217739817899</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.437716328135503</v>
+        <v>1.81670949964967</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.318516615542648</v>
+        <v>1.317332786675689</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.513149902234523</v>
+        <v>1.597869647207606</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.301619795853573</v>
+        <v>1.35799859519396</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.432660962408481</v>
+        <v>1.703431509126338</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.516085899963845</v>
+        <v>1.544637090369459</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.372165693118051</v>
+        <v>1.69677927592864</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.44965625448411</v>
+        <v>1.600446644619675</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.347820340901708</v>
+        <v>1.424676390659083</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.823556838536014</v>
+        <v>1.761922887196826</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.525052619622452</v>
+        <v>1.448575463637504</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.258439386731255</v>
+        <v>1.470642934658208</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.394793321324596</v>
+        <v>1.530583170040428</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.340764595596297</v>
+        <v>1.42368651800711</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.463491263826682</v>
+        <v>1.623413015422005</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.37281642012568</v>
+        <v>1.158887089791329</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.624174989738616</v>
+        <v>1.551757549494818</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.37686932858917</v>
+        <v>1.426203124029867</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.416894912706819</v>
+        <v>1.493065972684355</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.615506141368406</v>
+        <v>1.374439960874824</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.533674498293842</v>
+        <v>1.406034466151914</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.44408242077801</v>
+        <v>1.630710062497577</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.24887519183587</v>
+        <v>1.666233119196423</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.655427465101634</v>
+        <v>1.672152954354121</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.68190793971364</v>
+        <v>1.499599648765006</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <v>1.509213950167688</v>
+        <v>1.440484207865659</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.929081150435565</v>
+        <v>1.402660717321198</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.585024504242496</v>
+        <v>1.396744576195508</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.588226322025989</v>
+        <v>1.589556000601474</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.687459644886439</v>
+        <v>1.518226309722586</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.815725023714987</v>
+        <v>1.415083947490166</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.459059712515304</v>
+        <v>1.632593346244879</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1.54184559362783</v>
+        <v>1.505499031075201</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.369017747140648</v>
+        <v>1.728744534837406</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F186">
-        <v>1.560846017111533</v>
+        <v>1.503386934490046</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.665779682805914</v>
+        <v>1.431787995401547</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.207915263001858</v>
+        <v>1.56603094581099</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.223803727861957</v>
+        <v>1.625148049857196</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.524603041346664</v>
+        <v>1.338738169327345</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.494507196272544</v>
+        <v>1.506536178836101</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.869187717561331</v>
+        <v>1.361768484042425</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.426816291231192</v>
+        <v>1.434050570340068</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.436546731649258</v>
+        <v>1.460193653365024</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.288918073319727</v>
+        <v>1.455757454022523</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.561358159474543</v>
+        <v>1.359412055837374</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.728440066372546</v>
+        <v>1.833114906589363</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.782528104421085</v>
+        <v>1.440296081942146</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.65168814482111</v>
+        <v>1.46798194026166</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.379759692385246</v>
+        <v>1.731358539914993</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.596323873713347</v>
+        <v>1.510196659502408</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.284737704119926</v>
+        <v>1.605711251113395</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.326742900372224</v>
+        <v>1.283910304043526</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.351550956326603</v>
+        <v>1.422832555478303</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.523404205481794</v>
+        <v>1.510560427834917</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.568696317840902</v>
+        <v>1.246018055625792</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.451188370125001</v>
+        <v>1.490207241924245</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.586584048318304</v>
+        <v>1.198365986598188</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.465458839836463</v>
+        <v>1.332432031252893</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.488006336424267</v>
+        <v>1.301545255638917</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.664020132018278</v>
+        <v>1.252788923486939</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.253186512104099</v>
+        <v>1.62329547756353</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.802023263151624</v>
+        <v>1.607719482629536</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.674798759382419</v>
+        <v>1.564935950850313</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.663850639634353</v>
+        <v>1.527559059457688</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.41759297831802</v>
+        <v>1.498603803252157</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.583408961598346</v>
+        <v>1.518894613618067</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.405211560990655</v>
+        <v>1.222200644386242</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.580571720466177</v>
+        <v>1.397507898662974</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.548790201019929</v>
+        <v>1.490674888102105</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.663372784089409</v>
+        <v>1.588633348844903</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.590900458937536</v>
+        <v>1.507392900894112</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.538456479590883</v>
+        <v>1.680359779542852</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.449599071770863</v>
+        <v>1.573131828381005</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.563475839477251</v>
+        <v>1.640370050843731</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.581557060677518</v>
+        <v>1.665791386867461</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.576364607040352</v>
+        <v>1.529822126231601</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.301485604963598</v>
+        <v>1.44058335766867</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.618217066257037</v>
+        <v>1.293339491401822</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.488620765676419</v>
+        <v>1.403754201329969</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.518403215355081</v>
+        <v>1.502659491824013</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.511433704538495</v>
+        <v>1.678590918181242</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.280739539938538</v>
+        <v>1.644376505680337</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.55956853400469</v>
+        <v>1.607520161352539</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.427519318397731</v>
+        <v>1.525327194276709</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.803433768045066</v>
+        <v>1.734101928661684</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.387258697106646</v>
+        <v>1.612812157989944</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.662629991495609</v>
+        <v>1.263948203981287</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.463028958072541</v>
+        <v>1.308135970773473</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.40746866309869</v>
+        <v>1.403635896473225</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.574934382149033</v>
+        <v>1.414549147346129</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.537871551694305</v>
+        <v>1.218736615028928</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.541142263479439</v>
+        <v>1.473636140260502</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.580885497345405</v>
+        <v>1.500874377115846</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.641067163966421</v>
+        <v>1.494838467370603</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.687056152554496</v>
+        <v>1.604325376084281</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.647570294961016</v>
+        <v>1.691738066611511</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.468530735746133</v>
+        <v>1.488492689688673</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.637591925548519</v>
+        <v>1.485828955310124</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.516614392048366</v>
+        <v>1.361520537602329</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.770322046117416</v>
+        <v>1.409910993693337</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.273434155902812</v>
+        <v>1.60148788188842</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.470577183225218</v>
+        <v>1.20698358289521</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.675416615983084</v>
+        <v>1.203516041884019</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.703262347282674</v>
+        <v>1.750945625366444</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.450125456297057</v>
+        <v>1.701194719718008</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.583386106857768</v>
+        <v>1.652692956872978</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/18_localizer.xlsx
+++ b/sequences/18_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
   </si>
   <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
     <t>house/house039.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
   </si>
   <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
     <t>house/house048.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
   </si>
   <si>
     <t>face/face069.jpg</t>
   </si>
   <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
     <t>dog/dog065.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
   </si>
   <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
     <t>face/face094.jpg</t>
   </si>
   <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
     <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.374106142445027</v>
+        <v>1.322845731557131</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.471809814877106</v>
+        <v>1.389220282218211</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.388807369363681</v>
+        <v>1.588767325521973</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.483341868371139</v>
+        <v>1.369328481936448</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.369022295623145</v>
+        <v>1.624983884406818</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.772279326215146</v>
+        <v>1.750043216560503</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.566448441605403</v>
+        <v>1.324871825883573</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.623487820135503</v>
+        <v>1.528464655629918</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.555810167316839</v>
+        <v>1.457496035192</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.474450493548912</v>
+        <v>1.397137531781054</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.394607182763148</v>
+        <v>1.627284579533425</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.542937078767146</v>
+        <v>1.548836913578988</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.371793339352351</v>
+        <v>1.777848908191767</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.456768263394699</v>
+        <v>1.429534337347052</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.70222907094295</v>
+        <v>1.432617192868894</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.692297711792184</v>
+        <v>1.63693757076111</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.439143964821326</v>
+        <v>1.405339249180205</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.636401357294445</v>
+        <v>1.732867095954151</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.374096912108042</v>
+        <v>1.618106047900365</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.528673362786797</v>
+        <v>1.374013501837044</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.808413226539468</v>
+        <v>1.566423715293785</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.686577315767699</v>
+        <v>1.629830864947345</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.369584838762591</v>
+        <v>1.50481436545985</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.246880714050329</v>
+        <v>1.473146685138022</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.359549759515348</v>
+        <v>1.502579885552362</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.466275353546239</v>
+        <v>1.272665081214542</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.243627394021793</v>
+        <v>1.43839049752688</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.462673338947175</v>
+        <v>1.354894382940247</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.57605941630136</v>
+        <v>1.577616465168133</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.692100854113702</v>
+        <v>1.308601174155095</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.607304517230533</v>
+        <v>1.478333848706181</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.625352234891345</v>
+        <v>1.617934902061022</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.547188422292034</v>
+        <v>1.57482200327332</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.431913074877187</v>
+        <v>1.450822206504974</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.622018202428052</v>
+        <v>1.197770496664778</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.293144274982002</v>
+        <v>1.402912599275186</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.270480344503213</v>
+        <v>1.689783369830216</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.810290070829563</v>
+        <v>1.427316023749787</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.483911366817898</v>
+        <v>1.364413066446986</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.46865586548656</v>
+        <v>1.292261926324484</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.45779243128782</v>
+        <v>1.595658395475509</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.201210166888627</v>
+        <v>1.654826848895436</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.330792147460193</v>
+        <v>1.426694126422443</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.857660462436498</v>
+        <v>1.325859913352522</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.449715136452609</v>
+        <v>1.436288256734065</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>1.57369191054566</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.412066409267389</v>
+        <v>1.616639295525593</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.442186365003327</v>
+        <v>1.439764059118267</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.857955164946256</v>
+        <v>1.462081354470398</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.275238864485934</v>
+        <v>1.277809409865982</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.571882857172592</v>
+        <v>1.371247507107511</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.356616358096276</v>
+        <v>1.92657748140349</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.618518941215657</v>
+        <v>1.477423805149653</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.404998700833203</v>
+        <v>1.51412705602381</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.573792836317504</v>
+        <v>1.495185128714925</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.735713915504052</v>
+        <v>1.697868809669555</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.440549847188149</v>
+        <v>1.419533713909343</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.468578804997656</v>
+        <v>1.477538768389956</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.527573375318095</v>
+        <v>1.456252520720344</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.883358629174376</v>
+        <v>1.577049369034353</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.696632606339469</v>
+        <v>1.469732208474526</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.68280269799296</v>
+        <v>1.580492916025263</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.381797621596947</v>
+        <v>1.516479502807652</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.400032103300629</v>
+        <v>1.665762912355593</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.527506444705922</v>
+        <v>1.675839378821185</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.468243690758599</v>
+        <v>1.470267548801222</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.620299707953578</v>
+        <v>1.676825053313698</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.603951915923608</v>
+        <v>1.354547931197276</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.556983033593395</v>
+        <v>1.405131727309062</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.526251339224846</v>
+        <v>1.721132670858018</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.569218384075477</v>
+        <v>1.233741214145253</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.491168633700446</v>
+        <v>1.603292371156088</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.143328638922998</v>
+        <v>1.588776751300673</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.121360498793517</v>
+        <v>1.60734124486006</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.622358346264426</v>
+        <v>1.503601702449451</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.508313752018622</v>
+        <v>1.842839104740273</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.647575322204064</v>
+        <v>1.510816224166833</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.699318635833778</v>
+        <v>1.796912685116009</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.365201485529714</v>
+        <v>1.116342676723838</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.412393358166369</v>
+        <v>1.473562994686401</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.867209465655637</v>
+        <v>1.164349598508885</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.499665510148361</v>
+        <v>1.143675977035</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.524237005348117</v>
+        <v>1.322277320164344</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.373055465432165</v>
+        <v>1.481446528503977</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.665119820167006</v>
+        <v>1.755002834428881</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.844093544412344</v>
+        <v>1.528366084584932</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.620994985842944</v>
+        <v>1.444879183072103</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.422272455178502</v>
+        <v>1.534517221153813</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.388026623480844</v>
+        <v>1.26292608783043</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.330164906669616</v>
+        <v>1.53734993104505</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.448399123635828</v>
+        <v>1.475179446072545</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.335082487173421</v>
+        <v>1.532085298026221</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.839835038387673</v>
+        <v>1.367038670407331</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.432536269367348</v>
+        <v>1.250608566079278</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.390616392745523</v>
+        <v>1.684976925490202</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.549970079652179</v>
+        <v>1.422401546229231</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.321520546564655</v>
+        <v>1.602374212460401</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.499711075066383</v>
+        <v>1.224669699509637</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.449792090490786</v>
+        <v>1.356579020423117</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.426235746897955</v>
+        <v>1.656442309448835</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.496165967914482</v>
+        <v>1.593339271953206</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.562900370527313</v>
+        <v>1.395163739284044</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.535818926467922</v>
+        <v>1.468124189013601</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.355753968404964</v>
+        <v>1.701846692983886</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.513507014771859</v>
+        <v>1.575416238074054</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.599772442967695</v>
+        <v>1.561995533814354</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.749539805531156</v>
+        <v>1.515384175243092</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.482584765856448</v>
+        <v>1.669538976509762</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.591973227191283</v>
+        <v>1.380425460122322</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.454598337679203</v>
+        <v>1.647936718689814</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.653366292138668</v>
+        <v>1.301721931093374</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.365583177333306</v>
+        <v>1.40398156674701</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.458033440429017</v>
+        <v>1.350025125003877</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.767377378796736</v>
+        <v>1.390708347449974</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.360093654103973</v>
+        <v>1.648498294722982</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.34384259981666</v>
+        <v>1.640852448675543</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.425458160886861</v>
+        <v>1.720625007573894</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.414948995747277</v>
+        <v>1.73441316517949</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.753605799193549</v>
+        <v>1.630257387532591</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.477383716522864</v>
+        <v>1.355408338352287</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.796289507667109</v>
+        <v>1.683206773873248</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.397102728648492</v>
+        <v>1.553974887031752</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.588664099358185</v>
+        <v>1.368781798997001</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.65738710133535</v>
+        <v>1.283530758350033</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.596288571056268</v>
+        <v>1.488903925847929</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.84452369178258</v>
+        <v>1.702191608051711</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.456662357149742</v>
+        <v>1.670368281565378</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.656484320386677</v>
+        <v>1.609786658758204</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.333328098698202</v>
+        <v>1.655616694826529</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.538083538347077</v>
+        <v>1.371693078687153</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.413414410213644</v>
+        <v>1.621761562191469</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.784071405789449</v>
+        <v>1.456288074420733</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.660743664395943</v>
+        <v>1.626811278252098</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.583596050613356</v>
+        <v>1.539916359275577</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.428798595553107</v>
+        <v>1.526866060474368</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.517696427730002</v>
+        <v>1.719315669226962</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>1.368211239742854</v>
+        <v>1.679454069966589</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.495992832968985</v>
+        <v>1.523998447728827</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.410277216874547</v>
+        <v>1.380052309287064</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.307234379935182</v>
+        <v>1.675250307798999</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.46212869996179</v>
+        <v>1.356824563748934</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.306983715998978</v>
+        <v>1.514998465812534</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.489819097680853</v>
+        <v>1.349384575830279</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.395903262739492</v>
+        <v>1.438176573173308</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.449265682384453</v>
+        <v>1.421869038862034</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.297402683489754</v>
+        <v>1.655968692957427</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.50433953855368</v>
+        <v>1.565837603815789</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.418073494805909</v>
+        <v>1.439794397617917</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.627902511547615</v>
+        <v>1.597609032997228</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.519217739817899</v>
+        <v>1.548049900305159</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.81670949964967</v>
+        <v>1.411696233556119</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.317332786675689</v>
+        <v>1.581530888788387</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.597869647207606</v>
+        <v>1.502327283791635</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.35799859519396</v>
+        <v>1.440063025724765</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.703431509126338</v>
+        <v>1.704814869123957</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.544637090369459</v>
+        <v>1.584696571469482</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.69677927592864</v>
+        <v>1.565247436374783</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.600446644619675</v>
+        <v>1.493476388906238</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.424676390659083</v>
+        <v>1.475928628453815</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.761922887196826</v>
+        <v>1.55032307567764</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.448575463637504</v>
+        <v>1.100107926712124</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.470642934658208</v>
+        <v>1.602160786765298</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.530583170040428</v>
+        <v>1.611995178120812</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.42368651800711</v>
+        <v>1.505537969976275</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.623413015422005</v>
+        <v>1.54344941147765</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.158887089791329</v>
+        <v>1.371535892183503</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.551757549494818</v>
+        <v>1.646060091342574</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.426203124029867</v>
+        <v>1.795007751517692</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.493065972684355</v>
+        <v>1.507501633127287</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.374439960874824</v>
+        <v>1.159068987983273</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.406034466151914</v>
+        <v>1.198216827962417</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.630710062497577</v>
+        <v>1.468159112451909</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.666233119196423</v>
+        <v>1.593432791415222</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.672152954354121</v>
+        <v>1.609573273582469</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.499599648765006</v>
+        <v>1.741902958475347</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.440484207865659</v>
+        <v>1.404855445749748</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.402660717321198</v>
+        <v>1.605414683492291</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.396744576195508</v>
+        <v>1.550501796206849</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.589556000601474</v>
+        <v>1.548738419471467</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.518226309722586</v>
+        <v>1.246970953712061</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.415083947490166</v>
+        <v>1.523608047897524</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.632593346244879</v>
+        <v>1.318213426330083</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.505499031075201</v>
+        <v>1.448437950074867</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.728744534837406</v>
+        <v>1.350535012126641</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.503386934490046</v>
+        <v>1.615679694377883</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.431787995401547</v>
+        <v>1.508021886644357</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.56603094581099</v>
+        <v>1.713818535449641</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.625148049857196</v>
+        <v>1.360885526423974</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.338738169327345</v>
+        <v>1.536258721533329</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.506536178836101</v>
+        <v>1.414018381405125</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.361768484042425</v>
+        <v>1.524984603036071</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.434050570340068</v>
+        <v>1.519669811364551</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.460193653365024</v>
+        <v>1.437735090106857</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.455757454022523</v>
+        <v>1.490066789704882</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.359412055837374</v>
+        <v>1.473502460254797</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.833114906589363</v>
+        <v>1.377530139682095</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.440296081942146</v>
+        <v>1.573737318712724</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.46798194026166</v>
+        <v>1.305134147291113</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.731358539914993</v>
+        <v>1.348747444184908</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.510196659502408</v>
+        <v>1.286131800668115</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.605711251113395</v>
+        <v>1.290644321958643</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.283910304043526</v>
+        <v>1.428055123356783</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.422832555478303</v>
+        <v>1.377605700061783</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.510560427834917</v>
+        <v>1.503043274678815</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.246018055625792</v>
+        <v>1.284477642547537</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.490207241924245</v>
+        <v>1.584065485080577</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.198365986598188</v>
+        <v>1.664293057089582</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.332432031252893</v>
+        <v>1.540934742206597</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.301545255638917</v>
+        <v>1.771357271858304</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.252788923486939</v>
+        <v>1.555973348824851</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.62329547756353</v>
+        <v>1.452019696709831</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.607719482629536</v>
+        <v>1.633749018110103</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.564935950850313</v>
+        <v>1.716231095001812</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.527559059457688</v>
+        <v>1.493966500059003</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.498603803252157</v>
+        <v>1.323808132313953</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.518894613618067</v>
+        <v>1.632281315489595</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.222200644386242</v>
+        <v>1.609514769615038</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.397507898662974</v>
+        <v>1.375376906426223</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.490674888102105</v>
+        <v>1.342813072987049</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.588633348844903</v>
+        <v>1.5939709126118</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.507392900894112</v>
+        <v>1.412172056702765</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.680359779542852</v>
+        <v>1.647662082592691</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.573131828381005</v>
+        <v>1.354339725802373</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.640370050843731</v>
+        <v>1.881619686485238</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.665791386867461</v>
+        <v>1.506753202498949</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.529822126231601</v>
+        <v>1.554459148663796</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.44058335766867</v>
+        <v>1.569663136239277</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.293339491401822</v>
+        <v>1.455608939690955</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.403754201329969</v>
+        <v>1.434821126690426</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.502659491824013</v>
+        <v>1.653309881512225</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.678590918181242</v>
+        <v>1.531496146267481</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.644376505680337</v>
+        <v>1.703915115813658</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.607520161352539</v>
+        <v>1.623531399816477</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.525327194276709</v>
+        <v>1.549706169436224</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.734101928661684</v>
+        <v>1.651305069073834</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.612812157989944</v>
+        <v>1.43376298310519</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.263948203981287</v>
+        <v>1.361400810093423</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.308135970773473</v>
+        <v>1.410623475584452</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.403635896473225</v>
+        <v>1.756790804563894</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.414549147346129</v>
+        <v>1.553676142833277</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.218736615028928</v>
+        <v>1.335502739186944</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.473636140260502</v>
+        <v>1.581186536684197</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.500874377115846</v>
+        <v>1.538102138181556</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.494838467370603</v>
+        <v>1.819790114694014</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.604325376084281</v>
+        <v>1.388149597785055</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.691738066611511</v>
+        <v>1.404749076561711</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>1.488492689688673</v>
+        <v>1.413579028141649</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.485828955310124</v>
+        <v>1.410897369264103</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.361520537602329</v>
+        <v>1.48759147342338</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.409910993693337</v>
+        <v>1.497161417378788</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.60148788188842</v>
+        <v>1.496919940368201</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.20698358289521</v>
+        <v>1.439006166502429</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.203516041884019</v>
+        <v>1.638655215367286</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.750945625366444</v>
+        <v>1.402419650120326</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.701194719718008</v>
+        <v>1.464973928317614</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.652692956872978</v>
+        <v>1.608557884577227</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/18_localizer.xlsx
+++ b/sequences/18_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
   </si>
   <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
   </si>
   <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
+    <t>flower/flower039.jpg</t>
   </si>
   <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
   </si>
   <si>
     <t>house/house058.jpg</t>
   </si>
   <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
   </si>
   <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
   </si>
   <si>
     <t>flower/flower080.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
+    <t>house/house069.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>house/house091.jpg</t>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
   </si>
   <si>
     <t>house/house086.jpg</t>
   </si>
   <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
   </si>
   <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
+    <t>face/face080.jpg</t>
   </si>
   <si>
     <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.322845731557131</v>
+        <v>1.166940904705394</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.389220282218211</v>
+        <v>1.53822161621409</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.588767325521973</v>
+        <v>1.360265453924606</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.369328481936448</v>
+        <v>1.641157374459201</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.624983884406818</v>
+        <v>1.473218200960179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.750043216560503</v>
+        <v>1.417160043657576</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.324871825883573</v>
+        <v>1.688465512742095</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.528464655629918</v>
+        <v>1.703180482464923</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.457496035192</v>
+        <v>1.596605310509714</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.397137531781054</v>
+        <v>1.438278947972118</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.627284579533425</v>
+        <v>1.514879607241147</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.548836913578988</v>
+        <v>1.336044014934237</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.777848908191767</v>
+        <v>1.402236231238361</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.429534337347052</v>
+        <v>1.325747922192246</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.432617192868894</v>
+        <v>1.752773270073261</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.63693757076111</v>
+        <v>1.70235556304338</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.405339249180205</v>
+        <v>1.420932859397492</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.732867095954151</v>
+        <v>1.477068055975066</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.618106047900365</v>
+        <v>1.724338854627007</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.374013501837044</v>
+        <v>1.585505959753301</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.566423715293785</v>
+        <v>1.515131954937989</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.629830864947345</v>
+        <v>1.398159976866653</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.50481436545985</v>
+        <v>1.529370932544115</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.473146685138022</v>
+        <v>1.611739053930558</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.502579885552362</v>
+        <v>1.321962057829248</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.272665081214542</v>
+        <v>1.709352988720395</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.43839049752688</v>
+        <v>1.640162073950937</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.354894382940247</v>
+        <v>1.61967407404343</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.577616465168133</v>
+        <v>1.475709556282386</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.308601174155095</v>
+        <v>1.503071786959569</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.478333848706181</v>
+        <v>1.881607390325504</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.617934902061022</v>
+        <v>1.431628960993998</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.57482200327332</v>
+        <v>1.41363073501936</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.450822206504974</v>
+        <v>1.637166737343474</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.197770496664778</v>
+        <v>1.482034902979442</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.402912599275186</v>
+        <v>1.498308335275483</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.689783369830216</v>
+        <v>1.622956503280595</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.427316023749787</v>
+        <v>1.64599929806831</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.364413066446986</v>
+        <v>1.405131140279943</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.292261926324484</v>
+        <v>1.493034633714056</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.595658395475509</v>
+        <v>1.402325599849947</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.654826848895436</v>
+        <v>1.060894165057336</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.426694126422443</v>
+        <v>1.390669429396845</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.325859913352522</v>
+        <v>1.337168245459388</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.436288256734065</v>
+        <v>1.248897234677584</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.57369191054566</v>
+        <v>1.608337331258236</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.616639295525593</v>
+        <v>1.594191393492274</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.439764059118267</v>
+        <v>1.529119551923745</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.462081354470398</v>
+        <v>1.655898944286053</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.277809409865982</v>
+        <v>1.825730796097137</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.371247507107511</v>
+        <v>1.505995573251368</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.92657748140349</v>
+        <v>1.457009068698915</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.477423805149653</v>
+        <v>1.452580018813182</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1.51412705602381</v>
+        <v>1.428399042706101</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.495185128714925</v>
+        <v>1.26920268015498</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.697868809669555</v>
+        <v>1.398845285697256</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.419533713909343</v>
+        <v>1.575379710212378</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.477538768389956</v>
+        <v>1.572074204341189</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.456252520720344</v>
+        <v>1.492160554492148</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.577049369034353</v>
+        <v>1.390970552823285</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.469732208474526</v>
+        <v>1.291321822637493</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.580492916025263</v>
+        <v>1.713717945742071</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.516479502807652</v>
+        <v>1.198038640385477</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.665762912355593</v>
+        <v>1.430534548418547</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.675839378821185</v>
+        <v>1.296469841614746</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.470267548801222</v>
+        <v>1.332324949641966</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.676825053313698</v>
+        <v>1.239271482585007</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.354547931197276</v>
+        <v>1.672907776897529</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.405131727309062</v>
+        <v>1.563796357228749</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.721132670858018</v>
+        <v>1.648055995596653</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.233741214145253</v>
+        <v>1.289294936855802</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.603292371156088</v>
+        <v>1.459729584470698</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.588776751300673</v>
+        <v>1.687016382739181</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.60734124486006</v>
+        <v>1.268254427526331</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.503601702449451</v>
+        <v>1.700119546763548</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.842839104740273</v>
+        <v>1.782867288055542</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.510816224166833</v>
+        <v>1.692222938351521</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.796912685116009</v>
+        <v>1.541873157846037</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.116342676723838</v>
+        <v>1.807214319160431</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.473562994686401</v>
+        <v>1.596534094327551</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.164349598508885</v>
+        <v>1.371028584062678</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.143675977035</v>
+        <v>1.311138330565734</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.322277320164344</v>
+        <v>1.637341660555764</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.481446528503977</v>
+        <v>1.603615566576364</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.755002834428881</v>
+        <v>1.197708357399633</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.528366084584932</v>
+        <v>1.319177916089912</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.444879183072103</v>
+        <v>1.387924198614726</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.534517221153813</v>
+        <v>1.45661713772498</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.26292608783043</v>
+        <v>1.51198611873211</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.53734993104505</v>
+        <v>1.417097273947505</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.475179446072545</v>
+        <v>1.32138988842478</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.532085298026221</v>
+        <v>1.44964674015411</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.367038670407331</v>
+        <v>1.592943346801743</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1.250608566079278</v>
+        <v>1.724968165654754</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.684976925490202</v>
+        <v>1.676753541486855</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.422401546229231</v>
+        <v>1.346624342595411</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.602374212460401</v>
+        <v>1.634577205787447</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.224669699509637</v>
+        <v>1.612544752128161</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.356579020423117</v>
+        <v>1.551959086887235</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.656442309448835</v>
+        <v>1.352705470603043</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.593339271953206</v>
+        <v>1.640791096769904</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.395163739284044</v>
+        <v>1.524692279089229</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.468124189013601</v>
+        <v>1.577212376133869</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.701846692983886</v>
+        <v>1.405182017587384</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.575416238074054</v>
+        <v>1.216308931917525</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.561995533814354</v>
+        <v>1.400216349043645</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.515384175243092</v>
+        <v>1.459146221023679</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.669538976509762</v>
+        <v>1.725328612721699</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.380425460122322</v>
+        <v>1.408752672766434</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.647936718689814</v>
+        <v>1.720526403906967</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.301721931093374</v>
+        <v>1.648407541355539</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.40398156674701</v>
+        <v>1.482888042678668</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.350025125003877</v>
+        <v>1.34810882224699</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.390708347449974</v>
+        <v>1.531195487893537</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.648498294722982</v>
+        <v>1.563107546470551</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.640852448675543</v>
+        <v>1.353607108730753</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.720625007573894</v>
+        <v>1.591664925954648</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.73441316517949</v>
+        <v>1.321373154128225</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.630257387532591</v>
+        <v>1.579859496565257</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.355408338352287</v>
+        <v>1.571136794986832</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.683206773873248</v>
+        <v>1.290019421100623</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.553974887031752</v>
+        <v>1.479855598956579</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.368781798997001</v>
+        <v>1.397628110662509</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.283530758350033</v>
+        <v>1.409919573903118</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.488903925847929</v>
+        <v>1.444051111071065</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.702191608051711</v>
+        <v>1.195634541011154</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.670368281565378</v>
+        <v>1.673286193953585</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.609786658758204</v>
+        <v>1.393129749873778</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.655616694826529</v>
+        <v>1.468612047277902</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.371693078687153</v>
+        <v>1.44786822492367</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.621761562191469</v>
+        <v>1.423511992075361</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.456288074420733</v>
+        <v>1.582717326827403</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.626811278252098</v>
+        <v>1.643858752861156</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.539916359275577</v>
+        <v>1.368466000276272</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.526866060474368</v>
+        <v>1.444977224851985</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.719315669226962</v>
+        <v>1.550755665863027</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.679454069966589</v>
+        <v>1.560229416211363</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.523998447728827</v>
+        <v>1.620804195498879</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.380052309287064</v>
+        <v>1.311921915879598</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.675250307798999</v>
+        <v>1.44843313090874</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.356824563748934</v>
+        <v>1.464964862764236</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.514998465812534</v>
+        <v>1.49953352890274</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.349384575830279</v>
+        <v>1.733359077940283</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.438176573173308</v>
+        <v>1.619510285404635</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.421869038862034</v>
+        <v>1.400927377356414</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.655968692957427</v>
+        <v>1.597583192000715</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.565837603815789</v>
+        <v>1.617426059874812</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.439794397617917</v>
+        <v>1.443424000520275</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.597609032997228</v>
+        <v>1.418838182811074</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.548049900305159</v>
+        <v>1.290717499368826</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.411696233556119</v>
+        <v>1.342248650219651</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>1.581530888788387</v>
+        <v>1.439325405215876</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.502327283791635</v>
+        <v>1.424465743418053</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.440063025724765</v>
+        <v>1.463649111220026</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.704814869123957</v>
+        <v>1.552633489003311</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.584696571469482</v>
+        <v>1.470059597252871</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.565247436374783</v>
+        <v>1.469242948579563</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.493476388906238</v>
+        <v>1.597812963594082</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.475928628453815</v>
+        <v>1.160390885960219</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.55032307567764</v>
+        <v>1.362491182109248</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.100107926712124</v>
+        <v>1.528461670283862</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.602160786765298</v>
+        <v>1.497751957547533</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.611995178120812</v>
+        <v>1.554694272898469</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.505537969976275</v>
+        <v>1.49349730516419</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.54344941147765</v>
+        <v>1.666799047028142</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.371535892183503</v>
+        <v>1.756643665734802</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.646060091342574</v>
+        <v>1.607219942264639</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.795007751517692</v>
+        <v>1.649792343831136</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.507501633127287</v>
+        <v>1.819690081820872</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.159068987983273</v>
+        <v>1.673994342071171</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.198216827962417</v>
+        <v>1.204908612386348</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.468159112451909</v>
+        <v>1.464302011500369</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.593432791415222</v>
+        <v>1.577154011527215</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.609573273582469</v>
+        <v>1.574355503058686</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.741902958475347</v>
+        <v>1.639775835554205</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.404855445749748</v>
+        <v>1.422164565166537</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.605414683492291</v>
+        <v>1.487162171182672</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.550501796206849</v>
+        <v>1.320788543637252</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.548738419471467</v>
+        <v>1.445605941493741</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.246970953712061</v>
+        <v>1.351535410978905</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.523608047897524</v>
+        <v>1.395082308434248</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.318213426330083</v>
+        <v>1.62727660494337</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.448437950074867</v>
+        <v>1.528349054017826</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.350535012126641</v>
+        <v>1.361599489338163</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.615679694377883</v>
+        <v>1.382816593697211</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.508021886644357</v>
+        <v>1.38677311119552</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.713818535449641</v>
+        <v>1.392361482104114</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.360885526423974</v>
+        <v>1.512524615448385</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.536258721533329</v>
+        <v>1.54451513108399</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.414018381405125</v>
+        <v>1.497128459836611</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.524984603036071</v>
+        <v>1.429992957691394</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.519669811364551</v>
+        <v>1.707551532351331</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.437735090106857</v>
+        <v>1.642838500510185</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.490066789704882</v>
+        <v>1.710930894422017</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.473502460254797</v>
+        <v>1.387300770987116</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.377530139682095</v>
+        <v>1.520107180836243</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.573737318712724</v>
+        <v>1.609962569348957</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.305134147291113</v>
+        <v>1.470114356552415</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.348747444184908</v>
+        <v>1.897859909660335</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.286131800668115</v>
+        <v>1.393136215967422</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.290644321958643</v>
+        <v>1.431634436332806</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.428055123356783</v>
+        <v>1.413900824667255</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.377605700061783</v>
+        <v>1.54580764365861</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.503043274678815</v>
+        <v>1.405803267309596</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.284477642547537</v>
+        <v>1.694601382566596</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.584065485080577</v>
+        <v>1.670177458131512</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.664293057089582</v>
+        <v>1.7915832061261</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.540934742206597</v>
+        <v>1.508051230819617</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.771357271858304</v>
+        <v>1.454636993357648</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.555973348824851</v>
+        <v>1.587396013250667</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.452019696709831</v>
+        <v>1.564280983388578</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.633749018110103</v>
+        <v>1.573623078063056</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.716231095001812</v>
+        <v>1.471509234389455</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.493966500059003</v>
+        <v>1.542680058061302</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.323808132313953</v>
+        <v>1.576042011180883</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.632281315489595</v>
+        <v>1.3543743853791</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.609514769615038</v>
+        <v>1.777608816744237</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.375376906426223</v>
+        <v>1.314877087531655</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.342813072987049</v>
+        <v>1.591088061425304</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.5939709126118</v>
+        <v>1.418223103430622</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.412172056702765</v>
+        <v>1.562514752197238</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.647662082592691</v>
+        <v>1.509709225135161</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.354339725802373</v>
+        <v>1.458497340846291</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.881619686485238</v>
+        <v>1.455275713624154</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.506753202498949</v>
+        <v>1.416838245988288</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.554459148663796</v>
+        <v>1.447335027506929</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.569663136239277</v>
+        <v>1.537069393549179</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.455608939690955</v>
+        <v>1.655176758199907</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.434821126690426</v>
+        <v>1.18494217579374</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.653309881512225</v>
+        <v>1.43183401448516</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.531496146267481</v>
+        <v>1.559168982538132</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.703915115813658</v>
+        <v>1.352107086948069</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.623531399816477</v>
+        <v>1.482573093349416</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.549706169436224</v>
+        <v>1.613182056317048</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.651305069073834</v>
+        <v>1.311919158233761</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.43376298310519</v>
+        <v>1.594568225341728</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.361400810093423</v>
+        <v>1.39843356111519</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.410623475584452</v>
+        <v>1.369669335762924</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.756790804563894</v>
+        <v>1.756233585619377</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.553676142833277</v>
+        <v>1.546690854926166</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.335502739186944</v>
+        <v>1.50568762024762</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.581186536684197</v>
+        <v>1.848099968136469</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.538102138181556</v>
+        <v>1.149573816555284</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.819790114694014</v>
+        <v>1.681441680303009</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.388149597785055</v>
+        <v>1.64895779415113</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.404749076561711</v>
+        <v>1.661224037946025</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.413579028141649</v>
+        <v>1.576906513073355</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.410897369264103</v>
+        <v>1.502441922243427</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.48759147342338</v>
+        <v>1.839268892310848</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.497161417378788</v>
+        <v>1.38818022426934</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.496919940368201</v>
+        <v>1.412518657507283</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.439006166502429</v>
+        <v>1.443744340394099</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.638655215367286</v>
+        <v>1.422786369141304</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.402419650120326</v>
+        <v>1.400728561317637</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.464973928317614</v>
+        <v>1.496571854455581</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.608557884577227</v>
+        <v>1.534140324603169</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/18_localizer.xlsx
+++ b/sequences/18_localizer.xlsx
@@ -43,589 +43,745 @@
     <t>house</t>
   </si>
   <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
   </si>
   <si>
     <t>flower/flower045.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
   </si>
   <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
   </si>
   <si>
     <t>face/face056.jpg</t>
   </si>
   <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
     <t>house/house063.jpg</t>
   </si>
   <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
     <t>flower/flower063.jpg</t>
   </si>
   <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
+    <t>flower/flower062.jpg</t>
   </si>
   <si>
     <t>dog/dog061.jpg</t>
   </si>
   <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
     <t>dog/dog070.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
+    <t>dog/dog079.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>face/face090.jpg</t>
   </si>
   <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>face/face086.jpg</t>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>house/house094.jpg</t>
@@ -634,181 +790,25 @@
     <t>flower/flower095.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
+    <t>house/house082.jpg</t>
   </si>
   <si>
     <t>dog/dog085.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
+    <t>dog/dog091.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
     <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.166940904705394</v>
+        <v>1.670570425914244</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.53822161621409</v>
+        <v>1.304445368219592</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.360265453924606</v>
+        <v>1.485488029001687</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.641157374459201</v>
+        <v>1.508369578471154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.473218200960179</v>
+        <v>1.427647132840152</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.417160043657576</v>
+        <v>1.731913320876044</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.688465512742095</v>
+        <v>1.527988437864418</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.703180482464923</v>
+        <v>1.566887786502535</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1.596605310509714</v>
+        <v>1.609196914357712</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.438278947972118</v>
+        <v>1.594015653487089</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.514879607241147</v>
+        <v>1.795526175847598</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.336044014934237</v>
+        <v>1.415439833500258</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.402236231238361</v>
+        <v>1.462003733202353</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.325747922192246</v>
+        <v>1.505332726104881</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.752773270073261</v>
+        <v>1.4170337445097</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.70235556304338</v>
+        <v>1.401330586051535</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.420932859397492</v>
+        <v>1.297853956888303</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.477068055975066</v>
+        <v>1.694504365631161</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.724338854627007</v>
+        <v>1.694892122715585</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.585505959753301</v>
+        <v>1.677819490177192</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.515131954937989</v>
+        <v>1.378696828536308</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.398159976866653</v>
+        <v>1.408207333754028</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.529370932544115</v>
+        <v>1.357534637329346</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.611739053930558</v>
+        <v>1.262291311337514</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.321962057829248</v>
+        <v>1.487732224383326</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.709352988720395</v>
+        <v>1.567921505958888</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.640162073950937</v>
+        <v>1.394171000250761</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.61967407404343</v>
+        <v>1.345155108239593</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.475709556282386</v>
+        <v>1.26517905223291</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.503071786959569</v>
+        <v>1.253584646324652</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.881607390325504</v>
+        <v>1.317430270051722</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.431628960993998</v>
+        <v>1.143661995420933</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.41363073501936</v>
+        <v>1.54436070617538</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.637166737343474</v>
+        <v>1.370629149663234</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.482034902979442</v>
+        <v>1.258391628144762</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.498308335275483</v>
+        <v>1.699453518072578</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.622956503280595</v>
+        <v>1.67105790782693</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.64599929806831</v>
+        <v>1.468050185247706</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.405131140279943</v>
+        <v>1.605431353289055</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.493034633714056</v>
+        <v>1.213527027408547</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.402325599849947</v>
+        <v>1.475397652595188</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.060894165057336</v>
+        <v>1.587340897059031</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.390669429396845</v>
+        <v>1.745831423548908</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.337168245459388</v>
+        <v>1.463680744528559</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.248897234677584</v>
+        <v>1.702385899019777</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.608337331258236</v>
+        <v>1.604515393894042</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.594191393492274</v>
+        <v>1.609463573819323</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.529119551923745</v>
+        <v>1.441986432539523</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.655898944286053</v>
+        <v>1.37367603309738</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.825730796097137</v>
+        <v>1.618861736264185</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.505995573251368</v>
+        <v>1.701561192642653</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.457009068698915</v>
+        <v>1.536977510840322</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.452580018813182</v>
+        <v>1.439586296719497</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.428399042706101</v>
+        <v>1.321266872030706</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.26920268015498</v>
+        <v>1.618611233895486</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.398845285697256</v>
+        <v>1.435911400013292</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.575379710212378</v>
+        <v>1.310263596463632</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.572074204341189</v>
+        <v>1.737568704967286</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.492160554492148</v>
+        <v>1.393713847181114</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.390970552823285</v>
+        <v>1.828454399295863</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.291321822637493</v>
+        <v>1.532282716292376</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.713717945742071</v>
+        <v>1.480694861141043</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.198038640385477</v>
+        <v>1.404499213003207</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.430534548418547</v>
+        <v>1.313813776771365</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.296469841614746</v>
+        <v>1.490348031400214</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.332324949641966</v>
+        <v>1.457257839146762</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.239271482585007</v>
+        <v>1.577155452569889</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.672907776897529</v>
+        <v>1.513263775396429</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.563796357228749</v>
+        <v>1.211536883440339</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.648055995596653</v>
+        <v>1.603100772998039</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.289294936855802</v>
+        <v>1.442490841068524</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.459729584470698</v>
+        <v>1.442067412351106</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.687016382739181</v>
+        <v>1.34253717536434</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.268254427526331</v>
+        <v>1.484775306819979</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.700119546763548</v>
+        <v>1.543925559363567</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.782867288055542</v>
+        <v>1.580350861128662</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.692222938351521</v>
+        <v>1.775896655526303</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.541873157846037</v>
+        <v>1.531160416262109</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.807214319160431</v>
+        <v>1.506687490204432</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.596534094327551</v>
+        <v>1.597834290196548</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.371028584062678</v>
+        <v>1.493394452921061</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.311138330565734</v>
+        <v>1.500411148052975</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.637341660555764</v>
+        <v>1.596226595069792</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.603615566576364</v>
+        <v>1.652435866820172</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.197708357399633</v>
+        <v>1.530164902700098</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.319177916089912</v>
+        <v>1.611285212829498</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.387924198614726</v>
+        <v>1.121049249924112</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.45661713772498</v>
+        <v>1.668357668408007</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.51198611873211</v>
+        <v>1.242917213502821</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.417097273947505</v>
+        <v>1.427315930460792</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.32138988842478</v>
+        <v>1.165905412002912</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.44964674015411</v>
+        <v>1.182341923522213</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.592943346801743</v>
+        <v>1.596854690507622</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.724968165654754</v>
+        <v>1.57278931751428</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.676753541486855</v>
+        <v>1.435576782071229</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.346624342595411</v>
+        <v>1.535052144119984</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.634577205787447</v>
+        <v>1.61045213127516</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.612544752128161</v>
+        <v>1.475844578838939</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.551959086887235</v>
+        <v>1.48857461498257</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.352705470603043</v>
+        <v>1.554143185988289</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.640791096769904</v>
+        <v>1.705056548602673</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.524692279089229</v>
+        <v>1.302512132031586</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.577212376133869</v>
+        <v>1.354422864653738</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.405182017587384</v>
+        <v>1.332108590738991</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.216308931917525</v>
+        <v>1.648324435809457</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.400216349043645</v>
+        <v>1.476282419671057</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.459146221023679</v>
+        <v>1.511933361907431</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.725328612721699</v>
+        <v>1.402119588966177</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.408752672766434</v>
+        <v>1.440588234380645</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.720526403906967</v>
+        <v>1.334269517633957</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.648407541355539</v>
+        <v>1.369576685316972</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.482888042678668</v>
+        <v>1.52907607204642</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.34810882224699</v>
+        <v>1.273816887442624</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.531195487893537</v>
+        <v>1.673249416681489</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.563107546470551</v>
+        <v>1.663815164844175</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.353607108730753</v>
+        <v>1.624175702498777</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.591664925954648</v>
+        <v>1.802450380314577</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.321373154128225</v>
+        <v>1.123424502514029</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.579859496565257</v>
+        <v>1.385305079384059</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.571136794986832</v>
+        <v>1.212829440751376</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.290019421100623</v>
+        <v>1.679837062771111</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.479855598956579</v>
+        <v>1.575462452163185</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.397628110662509</v>
+        <v>1.610066624582827</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.409919573903118</v>
+        <v>1.497524757681711</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.444051111071065</v>
+        <v>1.294762613597857</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.195634541011154</v>
+        <v>1.427126302687255</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.673286193953585</v>
+        <v>1.352811064616388</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.393129749873778</v>
+        <v>1.416291428257418</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.468612047277902</v>
+        <v>1.261172120618902</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.44786822492367</v>
+        <v>1.584860552809908</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.423511992075361</v>
+        <v>1.67570114326026</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.582717326827403</v>
+        <v>1.324857738521223</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.643858752861156</v>
+        <v>1.598285563808909</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.368466000276272</v>
+        <v>1.692629137040751</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.444977224851985</v>
+        <v>1.619575010107989</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.550755665863027</v>
+        <v>1.539030560734219</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.560229416211363</v>
+        <v>1.617560626812582</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.620804195498879</v>
+        <v>1.432542497222171</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.311921915879598</v>
+        <v>1.421340196020368</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.44843313090874</v>
+        <v>1.572672859005113</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.464964862764236</v>
+        <v>1.507382740011471</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.49953352890274</v>
+        <v>1.77486924379575</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.733359077940283</v>
+        <v>1.555143012836937</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.619510285404635</v>
+        <v>1.382606992627444</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.400927377356414</v>
+        <v>1.398520555614343</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.597583192000715</v>
+        <v>1.536401059961786</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.617426059874812</v>
+        <v>1.443848937439869</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.443424000520275</v>
+        <v>1.34869883837167</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.418838182811074</v>
+        <v>1.384643882436621</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.290717499368826</v>
+        <v>1.581170995411342</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.342248650219651</v>
+        <v>1.483543570063643</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.439325405215876</v>
+        <v>1.626578943133558</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.424465743418053</v>
+        <v>1.583265588625404</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.463649111220026</v>
+        <v>1.533020230993026</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.552633489003311</v>
+        <v>1.745110456078586</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.470059597252871</v>
+        <v>1.485435206959136</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.469242948579563</v>
+        <v>1.363100717611944</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.597812963594082</v>
+        <v>1.522393446320335</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.160390885960219</v>
+        <v>1.647184508733042</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.362491182109248</v>
+        <v>1.139773655022841</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.528461670283862</v>
+        <v>1.740849384067774</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.497751957547533</v>
+        <v>1.436458867526099</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.554694272898469</v>
+        <v>1.39134892456857</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.49349730516419</v>
+        <v>1.600657711214377</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.666799047028142</v>
+        <v>1.740628633243732</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.756643665734802</v>
+        <v>1.584161493351747</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.607219942264639</v>
+        <v>1.395015601390544</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.649792343831136</v>
+        <v>1.293082264250523</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.819690081820872</v>
+        <v>1.747353274006912</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.673994342071171</v>
+        <v>1.425901948250002</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.204908612386348</v>
+        <v>1.161294120373159</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.464302011500369</v>
+        <v>1.395448864201219</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.577154011527215</v>
+        <v>1.589296644725748</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.574355503058686</v>
+        <v>1.326055959995221</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.639775835554205</v>
+        <v>1.649942689499385</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.422164565166537</v>
+        <v>1.166865853690418</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.487162171182672</v>
+        <v>1.414044745016445</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.320788543637252</v>
+        <v>1.455642739076736</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.445605941493741</v>
+        <v>1.760599623416822</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.351535410978905</v>
+        <v>1.590867250971684</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.395082308434248</v>
+        <v>1.469354535227922</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.62727660494337</v>
+        <v>1.248751452646838</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.528349054017826</v>
+        <v>1.696603562116083</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.361599489338163</v>
+        <v>1.301753164762306</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.382816593697211</v>
+        <v>1.787224128367613</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.38677311119552</v>
+        <v>1.591577427843387</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.392361482104114</v>
+        <v>1.569064719923516</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.512524615448385</v>
+        <v>1.44317338441428</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.54451513108399</v>
+        <v>1.478802675541325</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.497128459836611</v>
+        <v>1.5415866795963</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.429992957691394</v>
+        <v>1.608501821768028</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.707551532351331</v>
+        <v>1.275490771518694</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.642838500510185</v>
+        <v>1.397526052460995</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.710930894422017</v>
+        <v>1.387665722429423</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.387300770987116</v>
+        <v>1.469961782750129</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.520107180836243</v>
+        <v>1.380260248700487</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.609962569348957</v>
+        <v>1.413512093272022</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.470114356552415</v>
+        <v>1.504005592728139</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.897859909660335</v>
+        <v>1.405908470708534</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.393136215967422</v>
+        <v>1.587951066245321</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.431634436332806</v>
+        <v>1.639950270771383</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.413900824667255</v>
+        <v>1.336249498515328</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.54580764365861</v>
+        <v>1.42947573042132</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.405803267309596</v>
+        <v>1.562630628038879</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.694601382566596</v>
+        <v>1.476625613779255</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.670177458131512</v>
+        <v>1.556283066337981</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.7915832061261</v>
+        <v>1.488682028240944</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.508051230819617</v>
+        <v>1.516628631463285</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.454636993357648</v>
+        <v>1.529964424271542</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.587396013250667</v>
+        <v>1.599540521950129</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.564280983388578</v>
+        <v>1.588344690429027</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.573623078063056</v>
+        <v>1.419595200620203</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.471509234389455</v>
+        <v>1.261423371943574</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.542680058061302</v>
+        <v>1.624496646894972</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.576042011180883</v>
+        <v>1.588963542858947</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.3543743853791</v>
+        <v>1.593898428963325</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.777608816744237</v>
+        <v>1.331784729727212</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.314877087531655</v>
+        <v>1.528056126688595</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.591088061425304</v>
+        <v>1.473003550205313</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.418223103430622</v>
+        <v>1.576991417668427</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.562514752197238</v>
+        <v>1.494643505845236</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.509709225135161</v>
+        <v>1.43525228466612</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.458497340846291</v>
+        <v>1.433605093257171</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.455275713624154</v>
+        <v>1.576035041884158</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.416838245988288</v>
+        <v>1.517281536010519</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.447335027506929</v>
+        <v>1.494881929610557</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.537069393549179</v>
+        <v>1.405236465588858</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.655176758199907</v>
+        <v>1.521469350424605</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.18494217579374</v>
+        <v>1.422251481695629</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.43183401448516</v>
+        <v>1.323634964217101</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.559168982538132</v>
+        <v>1.643088662072973</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.352107086948069</v>
+        <v>1.22802586453051</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.482573093349416</v>
+        <v>1.301212185946654</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.613182056317048</v>
+        <v>1.370053516946957</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.311919158233761</v>
+        <v>1.45940083964152</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.594568225341728</v>
+        <v>1.201257701184032</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.39843356111519</v>
+        <v>1.421118241362374</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.369669335762924</v>
+        <v>1.475760381791641</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.756233585619377</v>
+        <v>1.447465024238062</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.546690854926166</v>
+        <v>1.262356204453259</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.50568762024762</v>
+        <v>1.384215256854629</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.848099968136469</v>
+        <v>1.670219460259315</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.149573816555284</v>
+        <v>1.695194854515017</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.681441680303009</v>
+        <v>1.377737039449037</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.64895779415113</v>
+        <v>1.776941656962738</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.661224037946025</v>
+        <v>1.39948641227806</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.576906513073355</v>
+        <v>1.592533013372513</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.502441922243427</v>
+        <v>1.69017443479448</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.839268892310848</v>
+        <v>1.688138903543787</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.38818022426934</v>
+        <v>1.20357580421523</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.412518657507283</v>
+        <v>1.586194159098036</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.443744340394099</v>
+        <v>1.462921794276568</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.422786369141304</v>
+        <v>1.613787919492916</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.400728561317637</v>
+        <v>1.467236489557594</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.496571854455581</v>
+        <v>1.622681748549819</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.534140324603169</v>
+        <v>1.500991843829412</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/18_localizer.xlsx
+++ b/sequences/18_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
   </si>
   <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
+    <t>dog/dog041.jpg</t>
   </si>
   <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
     <t>house/house034.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>flower/flower053.jpg</t>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
   </si>
   <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
     <t>house/house051.jpg</t>
   </si>
   <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
   </si>
   <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
+    <t>flower/flower065.jpg</t>
   </si>
   <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
+    <t>flower/flower058.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
   </si>
   <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
   </si>
   <si>
     <t>face/face074.jpg</t>
   </si>
   <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
     <t>flower/flower083.jpg</t>
   </si>
   <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
     <t>dog/dog089.jpg</t>
   </si>
   <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
   </si>
   <si>
     <t>dog/dog090.jpg</t>
   </si>
   <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
     <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.670570425914244</v>
+        <v>1.549428767261876</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.304445368219592</v>
+        <v>1.630924552910227</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.485488029001687</v>
+        <v>1.310350009584975</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.508369578471154</v>
+        <v>1.375638156051448</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.427647132840152</v>
+        <v>1.431091193885472</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.731913320876044</v>
+        <v>1.603834345200672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.527988437864418</v>
+        <v>1.522922116822858</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.566887786502535</v>
+        <v>1.12697143991287</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.609196914357712</v>
+        <v>1.422624306000047</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.594015653487089</v>
+        <v>1.579379786777001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.795526175847598</v>
+        <v>1.51289465734568</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.415439833500258</v>
+        <v>1.432240895644362</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.462003733202353</v>
+        <v>1.351266359192968</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.505332726104881</v>
+        <v>1.655855958752289</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.4170337445097</v>
+        <v>1.535113812275727</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.401330586051535</v>
+        <v>1.411018652994686</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.297853956888303</v>
+        <v>1.442563557887137</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.694504365631161</v>
+        <v>1.317014653187115</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.694892122715585</v>
+        <v>1.53849465048</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.677819490177192</v>
+        <v>1.520654325118742</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1.378696828536308</v>
+        <v>1.520188288207937</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.408207333754028</v>
+        <v>1.191757134003895</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.357534637329346</v>
+        <v>1.67549066511907</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.262291311337514</v>
+        <v>1.523946018343382</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.487732224383326</v>
+        <v>1.74041120690725</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.567921505958888</v>
+        <v>1.430775629891115</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.394171000250761</v>
+        <v>1.374534114551021</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.345155108239593</v>
+        <v>1.457845489930511</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.26517905223291</v>
+        <v>1.362932935032277</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.253584646324652</v>
+        <v>1.494213917103215</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.317430270051722</v>
+        <v>1.82368611829958</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.143661995420933</v>
+        <v>1.607361304272892</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.54436070617538</v>
+        <v>1.799135394603805</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.370629149663234</v>
+        <v>1.398114603795442</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.258391628144762</v>
+        <v>1.53403973408807</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.699453518072578</v>
+        <v>1.642799684686851</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.67105790782693</v>
+        <v>1.5040989655162</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.468050185247706</v>
+        <v>1.694273855792968</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.605431353289055</v>
+        <v>1.590118942248152</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.213527027408547</v>
+        <v>1.425697234098672</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.475397652595188</v>
+        <v>1.461511571175709</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.587340897059031</v>
+        <v>1.54401578404462</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.745831423548908</v>
+        <v>1.158034358556753</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.463680744528559</v>
+        <v>1.561308011215033</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.702385899019777</v>
+        <v>1.137809594988056</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.604515393894042</v>
+        <v>1.414195998553879</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.609463573819323</v>
+        <v>1.589648298587265</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.441986432539523</v>
+        <v>1.622708418401152</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.37367603309738</v>
+        <v>1.751662755054356</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.618861736264185</v>
+        <v>1.435534450562356</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.701561192642653</v>
+        <v>1.300223744960308</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.536977510840322</v>
+        <v>1.635186788348973</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.439586296719497</v>
+        <v>1.27712117436564</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.321266872030706</v>
+        <v>1.42244282146496</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.618611233895486</v>
+        <v>1.508584663747981</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.435911400013292</v>
+        <v>1.335620496633343</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.310263596463632</v>
+        <v>1.280276319019364</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.737568704967286</v>
+        <v>1.443236985991008</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.393713847181114</v>
+        <v>1.627571561357166</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.828454399295863</v>
+        <v>1.42934278161886</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.532282716292376</v>
+        <v>1.526648528733213</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.480694861141043</v>
+        <v>1.517561048988971</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.404499213003207</v>
+        <v>1.456235536911916</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.313813776771365</v>
+        <v>1.723985339930476</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.490348031400214</v>
+        <v>1.771770418073528</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.457257839146762</v>
+        <v>1.155408403586082</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.577155452569889</v>
+        <v>1.534264394329354</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.513263775396429</v>
+        <v>1.595414854245309</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.211536883440339</v>
+        <v>1.359933651190165</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.603100772998039</v>
+        <v>1.495565237944692</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.442490841068524</v>
+        <v>1.475073186290118</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.442067412351106</v>
+        <v>1.481040454570131</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.34253717536434</v>
+        <v>1.461916033430209</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.484775306819979</v>
+        <v>1.32605093408981</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.543925559363567</v>
+        <v>1.625522160069565</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.580350861128662</v>
+        <v>1.686565507235934</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.775896655526303</v>
+        <v>1.417890187067655</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.531160416262109</v>
+        <v>1.479298033697421</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.506687490204432</v>
+        <v>1.529283693214213</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.597834290196548</v>
+        <v>1.266125165453209</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.493394452921061</v>
+        <v>1.499880519779705</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.500411148052975</v>
+        <v>1.261256161589382</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.596226595069792</v>
+        <v>1.640788599254617</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.652435866820172</v>
+        <v>1.650324862246701</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.530164902700098</v>
+        <v>1.788239389400836</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.611285212829498</v>
+        <v>1.636088067124405</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.121049249924112</v>
+        <v>1.279310695546865</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.668357668408007</v>
+        <v>1.394383729639703</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.242917213502821</v>
+        <v>1.589262845421012</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.427315930460792</v>
+        <v>1.256312822706682</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.165905412002912</v>
+        <v>1.652893241173535</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.182341923522213</v>
+        <v>1.371949075205319</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.596854690507622</v>
+        <v>1.367133633258645</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.57278931751428</v>
+        <v>1.338024405361125</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.435576782071229</v>
+        <v>1.340514558908535</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.535052144119984</v>
+        <v>1.466906575910596</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.61045213127516</v>
+        <v>1.853417929973591</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.475844578838939</v>
+        <v>1.478429161718258</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.48857461498257</v>
+        <v>1.44369388278313</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.554143185988289</v>
+        <v>1.393001881783878</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.705056548602673</v>
+        <v>1.33271274402541</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.302512132031586</v>
+        <v>1.7442812193295</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.354422864653738</v>
+        <v>1.434472918758869</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.332108590738991</v>
+        <v>1.328119030714585</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.648324435809457</v>
+        <v>1.470762860384605</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.476282419671057</v>
+        <v>1.516208109578347</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.511933361907431</v>
+        <v>1.370355894610001</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.402119588966177</v>
+        <v>1.585147415316191</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.440588234380645</v>
+        <v>1.664515762271408</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.334269517633957</v>
+        <v>1.528910814590057</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.369576685316972</v>
+        <v>1.462627981162485</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.52907607204642</v>
+        <v>1.670561136244084</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.273816887442624</v>
+        <v>1.548820299706229</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.673249416681489</v>
+        <v>1.336574173943939</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.663815164844175</v>
+        <v>1.535907936337546</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.624175702498777</v>
+        <v>1.325489645228991</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.802450380314577</v>
+        <v>1.535277244906768</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.123424502514029</v>
+        <v>1.514002749952256</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1.385305079384059</v>
+        <v>1.24682480515692</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.212829440751376</v>
+        <v>1.416962027408095</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.679837062771111</v>
+        <v>1.530584690978135</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.575462452163185</v>
+        <v>1.557514154613004</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.610066624582827</v>
+        <v>1.651591323042331</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.497524757681711</v>
+        <v>1.225448360163357</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.294762613597857</v>
+        <v>1.480472455519228</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.427126302687255</v>
+        <v>1.216985339220088</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.352811064616388</v>
+        <v>1.773685569076671</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.416291428257418</v>
+        <v>1.531158187402635</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.261172120618902</v>
+        <v>1.477220161543549</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.584860552809908</v>
+        <v>1.489018399433715</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.67570114326026</v>
+        <v>1.644191304704006</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.324857738521223</v>
+        <v>1.537306301380441</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.598285563808909</v>
+        <v>1.496515855856508</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.692629137040751</v>
+        <v>1.485605680856072</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.619575010107989</v>
+        <v>1.202738675184253</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.539030560734219</v>
+        <v>1.458265087248124</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.617560626812582</v>
+        <v>1.508073416837138</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.432542497222171</v>
+        <v>1.661576730617122</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.421340196020368</v>
+        <v>1.22327077352278</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.572672859005113</v>
+        <v>1.540913885704605</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.507382740011471</v>
+        <v>1.422419100995794</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.77486924379575</v>
+        <v>1.502210033451147</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.555143012836937</v>
+        <v>1.432139004996008</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.382606992627444</v>
+        <v>1.514604069472619</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.398520555614343</v>
+        <v>1.477821760977293</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.536401059961786</v>
+        <v>1.743075760684571</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.443848937439869</v>
+        <v>1.325065538216907</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.34869883837167</v>
+        <v>1.29231623003712</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.384643882436621</v>
+        <v>1.709811704907945</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.581170995411342</v>
+        <v>1.378477451444578</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.483543570063643</v>
+        <v>1.384845562064156</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.626578943133558</v>
+        <v>1.526012518372691</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.583265588625404</v>
+        <v>1.448232857847561</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.533020230993026</v>
+        <v>1.657718933177235</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.745110456078586</v>
+        <v>1.374014608223831</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.485435206959136</v>
+        <v>1.342419599111397</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.363100717611944</v>
+        <v>1.48624550659029</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.522393446320335</v>
+        <v>1.323947259320762</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.647184508733042</v>
+        <v>1.406776744626284</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.139773655022841</v>
+        <v>1.522482174243446</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.740849384067774</v>
+        <v>1.386592777358896</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.436458867526099</v>
+        <v>1.463911542047044</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.39134892456857</v>
+        <v>1.358696146864389</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.600657711214377</v>
+        <v>1.44159123608827</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.740628633243732</v>
+        <v>1.707866652669439</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.584161493351747</v>
+        <v>1.327545491419995</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.395015601390544</v>
+        <v>1.329973840882036</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.293082264250523</v>
+        <v>1.485642899059779</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.747353274006912</v>
+        <v>1.450398758339293</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.425901948250002</v>
+        <v>1.536811811250094</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.161294120373159</v>
+        <v>1.436431683342221</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.395448864201219</v>
+        <v>1.758398744504625</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.589296644725748</v>
+        <v>1.389073394089656</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.326055959995221</v>
+        <v>1.462454936593919</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.649942689499385</v>
+        <v>1.579321301311785</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.166865853690418</v>
+        <v>1.506413959618965</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.414044745016445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.455642739076736</v>
+        <v>1.356093613111239</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.760599623416822</v>
+        <v>1.331869824000439</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.590867250971684</v>
+        <v>1.339137848720923</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.469354535227922</v>
+        <v>1.507563605462371</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.248751452646838</v>
+        <v>1.408946807019607</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.696603562116083</v>
+        <v>1.448772190734241</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.301753164762306</v>
+        <v>1.384302725870671</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.787224128367613</v>
+        <v>1.500805604610045</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.591577427843387</v>
+        <v>1.226144030152569</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.569064719923516</v>
+        <v>1.498995056056435</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.44317338441428</v>
+        <v>1.492019428169747</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.478802675541325</v>
+        <v>1.418315895123527</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.5415866795963</v>
+        <v>1.59070959159557</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.608501821768028</v>
+        <v>1.416910569484179</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.275490771518694</v>
+        <v>1.464100849111319</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.397526052460995</v>
+        <v>1.531796740244223</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.387665722429423</v>
+        <v>1.449745190311061</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.469961782750129</v>
+        <v>1.721499128251811</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.380260248700487</v>
+        <v>1.493990992841356</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.413512093272022</v>
+        <v>1.543795058304555</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.504005592728139</v>
+        <v>1.356530098286741</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.405908470708534</v>
+        <v>1.520699274008303</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.587951066245321</v>
+        <v>1.703480364703226</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.639950270771383</v>
+        <v>1.610543612119345</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.336249498515328</v>
+        <v>1.532164861064556</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.42947573042132</v>
+        <v>1.538585125532769</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.562630628038879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.476625613779255</v>
+        <v>1.656191270952508</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.556283066337981</v>
+        <v>1.562361521286712</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.488682028240944</v>
+        <v>1.60530251833789</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.516628631463285</v>
+        <v>1.393652199433012</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.529964424271542</v>
+        <v>1.635368135230115</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.599540521950129</v>
+        <v>1.332583548051028</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.588344690429027</v>
+        <v>1.696579476897531</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.419595200620203</v>
+        <v>1.625803553853514</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.261423371943574</v>
+        <v>1.914756646978973</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.624496646894972</v>
+        <v>1.737848205003859</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.588963542858947</v>
+        <v>1.252170407846829</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.593898428963325</v>
+        <v>1.750715741354413</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.331784729727212</v>
+        <v>1.615582534650972</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.528056126688595</v>
+        <v>1.562734901078289</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.473003550205313</v>
+        <v>1.281233071902085</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.576991417668427</v>
+        <v>1.51604163959577</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.494643505845236</v>
+        <v>1.617416416048777</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.43525228466612</v>
+        <v>1.583985517315454</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.433605093257171</v>
+        <v>1.365657956204954</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.576035041884158</v>
+        <v>1.365423400722794</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>1.517281536010519</v>
+        <v>1.616473341928189</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.494881929610557</v>
+        <v>1.496392748737597</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.405236465588858</v>
+        <v>1.706126371632704</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.521469350424605</v>
+        <v>1.383405266260768</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.422251481695629</v>
+        <v>1.428225080472868</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.323634964217101</v>
+        <v>1.407911410007232</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.643088662072973</v>
+        <v>1.510555513710173</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.22802586453051</v>
+        <v>1.515453315161453</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.301212185946654</v>
+        <v>1.692268272153292</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.370053516946957</v>
+        <v>1.570195825276366</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.45940083964152</v>
+        <v>1.371014011658799</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.201257701184032</v>
+        <v>1.32088129866272</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.421118241362374</v>
+        <v>1.628352720964597</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.475760381791641</v>
+        <v>1.606322390546092</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.447465024238062</v>
+        <v>1.782317416040805</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.262356204453259</v>
+        <v>1.682741555502502</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.384215256854629</v>
+        <v>1.525301634651854</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.670219460259315</v>
+        <v>1.60939170328917</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.695194854515017</v>
+        <v>1.518434393953868</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.377737039449037</v>
+        <v>1.471368070933254</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.776941656962738</v>
+        <v>1.502949097072576</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.39948641227806</v>
+        <v>1.528833483483064</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.592533013372513</v>
+        <v>1.392561387116278</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.69017443479448</v>
+        <v>1.495705266379589</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.688138903543787</v>
+        <v>1.623304653045775</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.20357580421523</v>
+        <v>1.721616319421661</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.586194159098036</v>
+        <v>1.696338113661931</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.462921794276568</v>
+        <v>1.316175613370618</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.613787919492916</v>
+        <v>1.470566121962412</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.467236489557594</v>
+        <v>1.618728960849684</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.622681748549819</v>
+        <v>1.48287504674292</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.500991843829412</v>
+        <v>1.2557903966195</v>
       </c>
     </row>
   </sheetData>
